--- a/docs/rawData/PID/06042016.xlsx
+++ b/docs/rawData/PID/06042016.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alex\Documents\GitHub\researchProject\docs\rawData\PID\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="390" yWindow="525" windowWidth="19815" windowHeight="7365" activeTab="5"/>
   </bookViews>
@@ -14,12 +19,12 @@
     <sheet name="Log5" sheetId="5" r:id="rId5"/>
     <sheet name="Log6" sheetId="6" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="14">
   <si>
     <t xml:space="preserve"> </t>
   </si>
@@ -66,8 +71,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -112,23 +117,70 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="en-GB"/>
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-GB" sz="1400"/>
+              <a:t>PID controller response</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-GB" sz="1400" baseline="0"/>
+              <a:t> to varying set point changes running on the live system</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-GB" sz="1400"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:scatterChart>
-        <c:scatterStyle val="smoothMarker"/>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
         <c:ser>
-          <c:idx val="0"/>
+          <c:idx val="2"/>
           <c:order val="0"/>
           <c:tx>
-            <c:v>PV</c:v>
+            <c:v>OP</c:v>
           </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
           <c:xVal>
             <c:numRef>
               <c:f>'Log6'!$A$4:$A$244</c:f>
@@ -855,749 +907,629 @@
                 <c:pt idx="239">
                   <c:v>1199.1960000991821</c:v>
                 </c:pt>
-                <c:pt idx="240">
-                  <c:v>1204.9060001373291</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Log6'!$B$4:$B$244</c:f>
+              <c:f>'Log6'!$K$4:$K$244</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="241"/>
                 <c:pt idx="0">
-                  <c:v>749</c:v>
+                  <c:v>35.9</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>752</c:v>
+                  <c:v>29.7</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>754</c:v>
+                  <c:v>33.1</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>758</c:v>
+                  <c:v>35.200000000000003</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>747</c:v>
+                  <c:v>53.5</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>718</c:v>
+                  <c:v>43.5</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>671</c:v>
+                  <c:v>54.5</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>633</c:v>
+                  <c:v>36</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>611</c:v>
+                  <c:v>35.799999999999997</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>577</c:v>
+                  <c:v>47.6</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>539</c:v>
+                  <c:v>43.3</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>504</c:v>
+                  <c:v>50.1</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>478</c:v>
+                  <c:v>51.8</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>445</c:v>
+                  <c:v>40.700000000000003</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>414</c:v>
+                  <c:v>38.5</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>405</c:v>
+                  <c:v>42.2</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>405</c:v>
+                  <c:v>41.1</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>402</c:v>
+                  <c:v>39.200000000000003</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>399</c:v>
+                  <c:v>33.4</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>385</c:v>
+                  <c:v>37.299999999999997</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>388</c:v>
+                  <c:v>40.700000000000003</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>383</c:v>
+                  <c:v>39.4</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>396</c:v>
+                  <c:v>37.200000000000003</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>402</c:v>
+                  <c:v>38.9</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>396</c:v>
+                  <c:v>31</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>397</c:v>
+                  <c:v>35.799999999999997</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>393</c:v>
+                  <c:v>38.200000000000003</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>391</c:v>
+                  <c:v>39.1</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>399</c:v>
+                  <c:v>43.8</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>404</c:v>
+                  <c:v>35.1</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>403</c:v>
+                  <c:v>39.5</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>403</c:v>
+                  <c:v>39.1</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>404</c:v>
+                  <c:v>45</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>408</c:v>
+                  <c:v>34.9</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>406</c:v>
+                  <c:v>38.299999999999997</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>402</c:v>
+                  <c:v>38.299999999999997</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>401</c:v>
+                  <c:v>38.299999999999997</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>402</c:v>
+                  <c:v>38.299999999999997</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>401</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>406</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>404</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>401</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>399</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>395</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>400</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>399</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>399</c:v>
+                  <c:v>87.9</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>395</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>401</c:v>
+                  <c:v>94.8</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>401</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>399</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>397</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>401</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>399</c:v>
+                  <c:v>86.5</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>400</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>403</c:v>
+                  <c:v>87.1</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>402</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>403</c:v>
+                  <c:v>97.6</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>410</c:v>
+                  <c:v>91.9</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>419</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>417</c:v>
+                  <c:v>99</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>431</c:v>
+                  <c:v>96.7</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>435</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>442</c:v>
+                  <c:v>94.4</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>441</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>442</c:v>
+                  <c:v>91.2</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>445</c:v>
+                  <c:v>76.3</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>445</c:v>
+                  <c:v>80.2</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>459</c:v>
+                  <c:v>72.400000000000006</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>451</c:v>
+                  <c:v>68.400000000000006</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>466</c:v>
+                  <c:v>68.3</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>466</c:v>
+                  <c:v>60.4</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>469</c:v>
+                  <c:v>55.7</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>478</c:v>
+                  <c:v>48.6</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>477</c:v>
+                  <c:v>46</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>479</c:v>
+                  <c:v>20.2</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>484</c:v>
+                  <c:v>23.4</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>480</c:v>
+                  <c:v>38.700000000000003</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>488</c:v>
+                  <c:v>60.7</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>488</c:v>
+                  <c:v>51.7</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>495</c:v>
+                  <c:v>38.799999999999997</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>509</c:v>
+                  <c:v>31.6</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>511</c:v>
+                  <c:v>33.1</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>516</c:v>
+                  <c:v>44.4</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>519</c:v>
+                  <c:v>57</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>518</c:v>
+                  <c:v>56.7</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>521</c:v>
+                  <c:v>51.1</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>523</c:v>
+                  <c:v>38.1</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>526</c:v>
+                  <c:v>36.299999999999997</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>526</c:v>
+                  <c:v>47.1</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>541</c:v>
+                  <c:v>61.7</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>540</c:v>
+                  <c:v>38.799999999999997</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>524</c:v>
+                  <c:v>37.200000000000003</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>499</c:v>
+                  <c:v>38.1</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>495</c:v>
+                  <c:v>44.4</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>503</c:v>
+                  <c:v>46.6</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>511</c:v>
+                  <c:v>34.5</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>512</c:v>
+                  <c:v>31.9</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>503</c:v>
+                  <c:v>45.4</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>490</c:v>
+                  <c:v>35.6</c:v>
                 </c:pt>
                 <c:pt idx="100">
-                  <c:v>486</c:v>
+                  <c:v>53.8</c:v>
                 </c:pt>
                 <c:pt idx="101">
-                  <c:v>490</c:v>
+                  <c:v>52.3</c:v>
                 </c:pt>
                 <c:pt idx="102">
-                  <c:v>502</c:v>
+                  <c:v>48.1</c:v>
                 </c:pt>
                 <c:pt idx="103">
-                  <c:v>508</c:v>
+                  <c:v>58.4</c:v>
                 </c:pt>
                 <c:pt idx="104">
-                  <c:v>502</c:v>
+                  <c:v>40.6</c:v>
                 </c:pt>
                 <c:pt idx="105">
-                  <c:v>489</c:v>
+                  <c:v>29.4</c:v>
                 </c:pt>
                 <c:pt idx="106">
-                  <c:v>501</c:v>
+                  <c:v>40.700000000000003</c:v>
                 </c:pt>
                 <c:pt idx="107">
-                  <c:v>507</c:v>
+                  <c:v>62.6</c:v>
                 </c:pt>
                 <c:pt idx="108">
-                  <c:v>508</c:v>
+                  <c:v>49.4</c:v>
                 </c:pt>
                 <c:pt idx="109">
-                  <c:v>503</c:v>
+                  <c:v>60.9</c:v>
                 </c:pt>
                 <c:pt idx="110">
-                  <c:v>499</c:v>
+                  <c:v>53.9</c:v>
                 </c:pt>
                 <c:pt idx="111">
-                  <c:v>506</c:v>
+                  <c:v>35</c:v>
                 </c:pt>
                 <c:pt idx="112">
-                  <c:v>510</c:v>
+                  <c:v>40.5</c:v>
                 </c:pt>
                 <c:pt idx="113">
-                  <c:v>501</c:v>
+                  <c:v>37.299999999999997</c:v>
                 </c:pt>
                 <c:pt idx="114">
-                  <c:v>504</c:v>
+                  <c:v>38</c:v>
                 </c:pt>
                 <c:pt idx="115">
-                  <c:v>492</c:v>
+                  <c:v>37.1</c:v>
                 </c:pt>
                 <c:pt idx="116">
-                  <c:v>489</c:v>
+                  <c:v>33.5</c:v>
                 </c:pt>
                 <c:pt idx="117">
-                  <c:v>492</c:v>
+                  <c:v>49.5</c:v>
                 </c:pt>
                 <c:pt idx="118">
-                  <c:v>487</c:v>
+                  <c:v>59.8</c:v>
                 </c:pt>
                 <c:pt idx="119">
-                  <c:v>499</c:v>
+                  <c:v>43.7</c:v>
                 </c:pt>
                 <c:pt idx="120">
-                  <c:v>512</c:v>
+                  <c:v>50.9</c:v>
                 </c:pt>
                 <c:pt idx="121">
-                  <c:v>508</c:v>
+                  <c:v>38.700000000000003</c:v>
                 </c:pt>
                 <c:pt idx="122">
-                  <c:v>490</c:v>
+                  <c:v>33.700000000000003</c:v>
                 </c:pt>
                 <c:pt idx="123">
-                  <c:v>493</c:v>
+                  <c:v>37.799999999999997</c:v>
                 </c:pt>
                 <c:pt idx="124">
-                  <c:v>487</c:v>
+                  <c:v>58.5</c:v>
                 </c:pt>
                 <c:pt idx="125">
-                  <c:v>491</c:v>
+                  <c:v>54.7</c:v>
                 </c:pt>
                 <c:pt idx="126">
-                  <c:v>507</c:v>
+                  <c:v>54.7</c:v>
                 </c:pt>
                 <c:pt idx="127">
-                  <c:v>509</c:v>
+                  <c:v>54.7</c:v>
                 </c:pt>
                 <c:pt idx="128">
-                  <c:v>511</c:v>
+                  <c:v>54.7</c:v>
                 </c:pt>
                 <c:pt idx="129">
-                  <c:v>510</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="130">
-                  <c:v>509</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="131">
-                  <c:v>510</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="132">
-                  <c:v>498</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="133">
-                  <c:v>486</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="134">
-                  <c:v>494</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="135">
-                  <c:v>493</c:v>
+                  <c:v>29.9</c:v>
                 </c:pt>
                 <c:pt idx="136">
-                  <c:v>502</c:v>
+                  <c:v>44.2</c:v>
                 </c:pt>
                 <c:pt idx="137">
-                  <c:v>509</c:v>
+                  <c:v>31.1</c:v>
                 </c:pt>
                 <c:pt idx="138">
-                  <c:v>508</c:v>
+                  <c:v>36</c:v>
                 </c:pt>
                 <c:pt idx="139">
-                  <c:v>492</c:v>
+                  <c:v>40</c:v>
                 </c:pt>
                 <c:pt idx="140">
-                  <c:v>489</c:v>
+                  <c:v>42.8</c:v>
                 </c:pt>
                 <c:pt idx="141">
-                  <c:v>491</c:v>
+                  <c:v>26.2</c:v>
                 </c:pt>
                 <c:pt idx="142">
-                  <c:v>500</c:v>
+                  <c:v>33.6</c:v>
                 </c:pt>
                 <c:pt idx="143">
-                  <c:v>507</c:v>
+                  <c:v>49.7</c:v>
                 </c:pt>
                 <c:pt idx="144">
-                  <c:v>508</c:v>
+                  <c:v>45.8</c:v>
                 </c:pt>
                 <c:pt idx="145">
-                  <c:v>514</c:v>
+                  <c:v>45.6</c:v>
                 </c:pt>
                 <c:pt idx="146">
-                  <c:v>484</c:v>
+                  <c:v>38</c:v>
                 </c:pt>
                 <c:pt idx="147">
-                  <c:v>452</c:v>
+                  <c:v>31.3</c:v>
                 </c:pt>
                 <c:pt idx="148">
-                  <c:v>419</c:v>
+                  <c:v>29.5</c:v>
                 </c:pt>
                 <c:pt idx="149">
-                  <c:v>386</c:v>
+                  <c:v>50.2</c:v>
                 </c:pt>
                 <c:pt idx="150">
-                  <c:v>347</c:v>
+                  <c:v>48.5</c:v>
                 </c:pt>
                 <c:pt idx="151">
-                  <c:v>315</c:v>
+                  <c:v>46.2</c:v>
                 </c:pt>
                 <c:pt idx="152">
-                  <c:v>309</c:v>
+                  <c:v>46.8</c:v>
                 </c:pt>
                 <c:pt idx="153">
-                  <c:v>302</c:v>
+                  <c:v>48.6</c:v>
                 </c:pt>
                 <c:pt idx="154">
-                  <c:v>296</c:v>
+                  <c:v>32.700000000000003</c:v>
                 </c:pt>
                 <c:pt idx="155">
-                  <c:v>292</c:v>
+                  <c:v>51.8</c:v>
                 </c:pt>
                 <c:pt idx="156">
-                  <c:v>303</c:v>
+                  <c:v>34.299999999999997</c:v>
                 </c:pt>
                 <c:pt idx="157">
-                  <c:v>302</c:v>
+                  <c:v>43.1</c:v>
                 </c:pt>
                 <c:pt idx="158">
-                  <c:v>290</c:v>
+                  <c:v>32.4</c:v>
                 </c:pt>
                 <c:pt idx="159">
-                  <c:v>289</c:v>
+                  <c:v>34.6</c:v>
                 </c:pt>
                 <c:pt idx="160">
-                  <c:v>290</c:v>
+                  <c:v>44.6</c:v>
                 </c:pt>
                 <c:pt idx="161">
-                  <c:v>297</c:v>
+                  <c:v>49.8</c:v>
                 </c:pt>
                 <c:pt idx="162">
-                  <c:v>305</c:v>
+                  <c:v>35.5</c:v>
                 </c:pt>
                 <c:pt idx="163">
-                  <c:v>309</c:v>
+                  <c:v>37.200000000000003</c:v>
                 </c:pt>
                 <c:pt idx="164">
-                  <c:v>295</c:v>
+                  <c:v>33.6</c:v>
                 </c:pt>
                 <c:pt idx="165">
-                  <c:v>291</c:v>
+                  <c:v>33.6</c:v>
                 </c:pt>
                 <c:pt idx="166">
-                  <c:v>292</c:v>
+                  <c:v>33.6</c:v>
                 </c:pt>
                 <c:pt idx="167">
-                  <c:v>293</c:v>
+                  <c:v>33.6</c:v>
                 </c:pt>
                 <c:pt idx="168">
-                  <c:v>293</c:v>
+                  <c:v>33.6</c:v>
                 </c:pt>
                 <c:pt idx="169">
-                  <c:v>305</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="170">
-                  <c:v>296</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="171">
-                  <c:v>305</c:v>
+                  <c:v>6.4</c:v>
                 </c:pt>
                 <c:pt idx="172">
-                  <c:v>302</c:v>
+                  <c:v>22.3</c:v>
                 </c:pt>
                 <c:pt idx="173">
-                  <c:v>308</c:v>
+                  <c:v>45.9</c:v>
                 </c:pt>
                 <c:pt idx="174">
-                  <c:v>308</c:v>
+                  <c:v>52.6</c:v>
                 </c:pt>
                 <c:pt idx="175">
-                  <c:v>300</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="176">
-                  <c:v>293</c:v>
+                  <c:v>49.6</c:v>
                 </c:pt>
                 <c:pt idx="177">
-                  <c:v>301</c:v>
+                  <c:v>32</c:v>
                 </c:pt>
                 <c:pt idx="178">
-                  <c:v>303</c:v>
+                  <c:v>35.6</c:v>
                 </c:pt>
                 <c:pt idx="179">
-                  <c:v>306</c:v>
+                  <c:v>56</c:v>
                 </c:pt>
                 <c:pt idx="180">
-                  <c:v>306</c:v>
+                  <c:v>32.799999999999997</c:v>
                 </c:pt>
                 <c:pt idx="181">
-                  <c:v>296</c:v>
+                  <c:v>53.5</c:v>
                 </c:pt>
                 <c:pt idx="182">
-                  <c:v>291</c:v>
+                  <c:v>35.6</c:v>
                 </c:pt>
                 <c:pt idx="183">
-                  <c:v>290</c:v>
+                  <c:v>55.8</c:v>
                 </c:pt>
                 <c:pt idx="184">
-                  <c:v>289</c:v>
+                  <c:v>48.7</c:v>
                 </c:pt>
                 <c:pt idx="185">
-                  <c:v>290</c:v>
+                  <c:v>38.5</c:v>
                 </c:pt>
                 <c:pt idx="186">
-                  <c:v>260</c:v>
+                  <c:v>33.700000000000003</c:v>
                 </c:pt>
                 <c:pt idx="187">
-                  <c:v>229</c:v>
+                  <c:v>46.4</c:v>
                 </c:pt>
                 <c:pt idx="188">
-                  <c:v>196</c:v>
+                  <c:v>30.7</c:v>
                 </c:pt>
                 <c:pt idx="189">
-                  <c:v>178</c:v>
+                  <c:v>38.200000000000003</c:v>
                 </c:pt>
                 <c:pt idx="190">
-                  <c:v>175</c:v>
+                  <c:v>28.3</c:v>
                 </c:pt>
                 <c:pt idx="191">
-                  <c:v>177</c:v>
+                  <c:v>30.8</c:v>
                 </c:pt>
                 <c:pt idx="192">
-                  <c:v>193</c:v>
+                  <c:v>45.5</c:v>
                 </c:pt>
                 <c:pt idx="193">
-                  <c:v>198</c:v>
+                  <c:v>58.7</c:v>
                 </c:pt>
                 <c:pt idx="194">
-                  <c:v>186</c:v>
+                  <c:v>47.4</c:v>
                 </c:pt>
                 <c:pt idx="195">
-                  <c:v>199</c:v>
+                  <c:v>47.6</c:v>
                 </c:pt>
                 <c:pt idx="196">
-                  <c:v>190</c:v>
+                  <c:v>32.4</c:v>
                 </c:pt>
                 <c:pt idx="197">
-                  <c:v>200</c:v>
+                  <c:v>36.6</c:v>
                 </c:pt>
                 <c:pt idx="198">
-                  <c:v>190</c:v>
+                  <c:v>43.9</c:v>
                 </c:pt>
                 <c:pt idx="199">
-                  <c:v>192</c:v>
-                </c:pt>
-                <c:pt idx="200">
-                  <c:v>201</c:v>
-                </c:pt>
-                <c:pt idx="201">
-                  <c:v>208</c:v>
-                </c:pt>
-                <c:pt idx="202">
-                  <c:v>201</c:v>
-                </c:pt>
-                <c:pt idx="203">
-                  <c:v>209</c:v>
-                </c:pt>
-                <c:pt idx="204">
-                  <c:v>206</c:v>
-                </c:pt>
-                <c:pt idx="205">
-                  <c:v>211</c:v>
-                </c:pt>
-                <c:pt idx="206">
-                  <c:v>210</c:v>
-                </c:pt>
-                <c:pt idx="207">
-                  <c:v>198</c:v>
-                </c:pt>
-                <c:pt idx="208">
-                  <c:v>184</c:v>
-                </c:pt>
-                <c:pt idx="209">
-                  <c:v>188</c:v>
-                </c:pt>
-                <c:pt idx="210">
-                  <c:v>191</c:v>
-                </c:pt>
-                <c:pt idx="211">
-                  <c:v>204</c:v>
-                </c:pt>
-                <c:pt idx="212">
-                  <c:v>206</c:v>
-                </c:pt>
-                <c:pt idx="213">
-                  <c:v>201</c:v>
-                </c:pt>
-                <c:pt idx="214">
-                  <c:v>201</c:v>
-                </c:pt>
-                <c:pt idx="215">
-                  <c:v>211</c:v>
-                </c:pt>
-                <c:pt idx="216">
-                  <c:v>214</c:v>
-                </c:pt>
-                <c:pt idx="217">
-                  <c:v>212</c:v>
-                </c:pt>
-                <c:pt idx="218">
-                  <c:v>189</c:v>
-                </c:pt>
-                <c:pt idx="219">
-                  <c:v>179</c:v>
-                </c:pt>
-                <c:pt idx="220">
-                  <c:v>180</c:v>
-                </c:pt>
-                <c:pt idx="221">
-                  <c:v>185</c:v>
-                </c:pt>
-                <c:pt idx="222">
-                  <c:v>206</c:v>
-                </c:pt>
-                <c:pt idx="223">
-                  <c:v>201</c:v>
-                </c:pt>
-                <c:pt idx="224">
-                  <c:v>205</c:v>
-                </c:pt>
-                <c:pt idx="225">
-                  <c:v>213</c:v>
-                </c:pt>
-                <c:pt idx="226">
-                  <c:v>214</c:v>
-                </c:pt>
-                <c:pt idx="227">
-                  <c:v>219</c:v>
-                </c:pt>
-                <c:pt idx="228">
-                  <c:v>230</c:v>
-                </c:pt>
-                <c:pt idx="229">
-                  <c:v>227</c:v>
-                </c:pt>
-                <c:pt idx="230">
-                  <c:v>244</c:v>
-                </c:pt>
-                <c:pt idx="231">
-                  <c:v>248</c:v>
-                </c:pt>
-                <c:pt idx="232">
-                  <c:v>251</c:v>
-                </c:pt>
-                <c:pt idx="233">
-                  <c:v>254</c:v>
-                </c:pt>
-                <c:pt idx="234">
-                  <c:v>257</c:v>
-                </c:pt>
-                <c:pt idx="235">
-                  <c:v>260</c:v>
-                </c:pt>
-                <c:pt idx="236">
-                  <c:v>271</c:v>
-                </c:pt>
-                <c:pt idx="237">
-                  <c:v>286</c:v>
-                </c:pt>
-                <c:pt idx="238">
-                  <c:v>289</c:v>
-                </c:pt>
-                <c:pt idx="239">
-                  <c:v>293</c:v>
-                </c:pt>
-                <c:pt idx="240">
-                  <c:v>293</c:v>
+                  <c:v>40.700000000000003</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
-          <c:smooth val="1"/>
+          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
           <c:order val="1"/>
+          <c:tx>
+            <c:v>SP</c:v>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
           <c:xVal>
             <c:numRef>
               <c:f>'Log6'!$A$4:$A$244</c:f>
@@ -2324,771 +2256,2055 @@
                 <c:pt idx="239">
                   <c:v>1199.1960000991821</c:v>
                 </c:pt>
-                <c:pt idx="240">
-                  <c:v>1204.9060001373291</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Log6'!$D$4:$D$244</c:f>
+              <c:f>'Log6'!$J$4:$J$244</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="241"/>
                 <c:pt idx="0">
-                  <c:v>400</c:v>
+                  <c:v>40</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>400</c:v>
+                  <c:v>40</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>400</c:v>
+                  <c:v>40</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>400</c:v>
+                  <c:v>40</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>400</c:v>
+                  <c:v>40</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>400</c:v>
+                  <c:v>40</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>400</c:v>
+                  <c:v>40</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>400</c:v>
+                  <c:v>40</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>400</c:v>
+                  <c:v>40</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>400</c:v>
+                  <c:v>40</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>400</c:v>
+                  <c:v>40</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>400</c:v>
+                  <c:v>40</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>400</c:v>
+                  <c:v>40</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>400</c:v>
+                  <c:v>40</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>400</c:v>
+                  <c:v>40</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>400</c:v>
+                  <c:v>40</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>400</c:v>
+                  <c:v>40</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>400</c:v>
+                  <c:v>40</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>400</c:v>
+                  <c:v>40</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>400</c:v>
+                  <c:v>40</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>400</c:v>
+                  <c:v>40</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>400</c:v>
+                  <c:v>40</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>400</c:v>
+                  <c:v>40</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>400</c:v>
+                  <c:v>40</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>400</c:v>
+                  <c:v>40</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>400</c:v>
+                  <c:v>40</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>400</c:v>
+                  <c:v>40</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>400</c:v>
+                  <c:v>40</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>400</c:v>
+                  <c:v>40</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>400</c:v>
+                  <c:v>40</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>400</c:v>
+                  <c:v>40</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>400</c:v>
+                  <c:v>40</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>400</c:v>
+                  <c:v>40</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>400</c:v>
+                  <c:v>40</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>400</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>400</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>400</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>400</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>400</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>400</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>400</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>400</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>400</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>400</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>400</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>400</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>400</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>400</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>400</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>400</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>500</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>500</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>500</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>500</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>500</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>500</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>500</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>500</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>500</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>500</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>500</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>500</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>500</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>500</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>500</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>500</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>500</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>500</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>500</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>500</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>500</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>500</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>500</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>500</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>500</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>500</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>500</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>500</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>500</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>500</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>500</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>500</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>500</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>500</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>500</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>500</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>500</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>500</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>500</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>500</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>500</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>500</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>500</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>500</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>500</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>500</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>500</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>500</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>500</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>500</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="100">
-                  <c:v>500</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="101">
-                  <c:v>500</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="102">
-                  <c:v>500</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="103">
-                  <c:v>500</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="104">
-                  <c:v>500</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="105">
-                  <c:v>500</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="106">
-                  <c:v>500</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="107">
-                  <c:v>500</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="108">
-                  <c:v>500</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="109">
-                  <c:v>500</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="110">
-                  <c:v>500</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="111">
-                  <c:v>500</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="112">
-                  <c:v>500</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="113">
-                  <c:v>500</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="114">
-                  <c:v>500</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="115">
-                  <c:v>500</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="116">
-                  <c:v>500</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="117">
-                  <c:v>500</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="118">
-                  <c:v>500</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="119">
-                  <c:v>500</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="120">
-                  <c:v>500</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="121">
-                  <c:v>500</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="122">
-                  <c:v>500</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="123">
-                  <c:v>500</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="124">
-                  <c:v>500</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="125">
-                  <c:v>500</c:v>
+                  <c:v>39</c:v>
                 </c:pt>
                 <c:pt idx="126">
-                  <c:v>500</c:v>
+                  <c:v>30</c:v>
                 </c:pt>
                 <c:pt idx="127">
-                  <c:v>500</c:v>
+                  <c:v>30</c:v>
                 </c:pt>
                 <c:pt idx="128">
-                  <c:v>500</c:v>
+                  <c:v>30</c:v>
                 </c:pt>
                 <c:pt idx="129">
-                  <c:v>500</c:v>
+                  <c:v>30</c:v>
                 </c:pt>
                 <c:pt idx="130">
-                  <c:v>500</c:v>
+                  <c:v>30</c:v>
                 </c:pt>
                 <c:pt idx="131">
-                  <c:v>500</c:v>
+                  <c:v>30</c:v>
                 </c:pt>
                 <c:pt idx="132">
-                  <c:v>500</c:v>
+                  <c:v>30</c:v>
                 </c:pt>
                 <c:pt idx="133">
-                  <c:v>500</c:v>
+                  <c:v>30</c:v>
                 </c:pt>
                 <c:pt idx="134">
-                  <c:v>500</c:v>
+                  <c:v>30</c:v>
                 </c:pt>
                 <c:pt idx="135">
-                  <c:v>500</c:v>
+                  <c:v>30</c:v>
                 </c:pt>
                 <c:pt idx="136">
-                  <c:v>500</c:v>
+                  <c:v>30</c:v>
                 </c:pt>
                 <c:pt idx="137">
-                  <c:v>500</c:v>
+                  <c:v>30</c:v>
                 </c:pt>
                 <c:pt idx="138">
-                  <c:v>500</c:v>
+                  <c:v>30</c:v>
                 </c:pt>
                 <c:pt idx="139">
-                  <c:v>500</c:v>
+                  <c:v>30</c:v>
                 </c:pt>
                 <c:pt idx="140">
-                  <c:v>500</c:v>
+                  <c:v>30</c:v>
                 </c:pt>
                 <c:pt idx="141">
-                  <c:v>390</c:v>
+                  <c:v>30</c:v>
                 </c:pt>
                 <c:pt idx="142">
-                  <c:v>300</c:v>
+                  <c:v>30</c:v>
                 </c:pt>
                 <c:pt idx="143">
-                  <c:v>300</c:v>
+                  <c:v>30</c:v>
                 </c:pt>
                 <c:pt idx="144">
-                  <c:v>300</c:v>
+                  <c:v>30</c:v>
                 </c:pt>
                 <c:pt idx="145">
-                  <c:v>300</c:v>
+                  <c:v>30</c:v>
                 </c:pt>
                 <c:pt idx="146">
-                  <c:v>300</c:v>
+                  <c:v>30</c:v>
                 </c:pt>
                 <c:pt idx="147">
-                  <c:v>300</c:v>
+                  <c:v>30</c:v>
                 </c:pt>
                 <c:pt idx="148">
-                  <c:v>300</c:v>
+                  <c:v>30</c:v>
                 </c:pt>
                 <c:pt idx="149">
-                  <c:v>300</c:v>
+                  <c:v>30</c:v>
                 </c:pt>
                 <c:pt idx="150">
-                  <c:v>300</c:v>
+                  <c:v>30</c:v>
                 </c:pt>
                 <c:pt idx="151">
-                  <c:v>300</c:v>
+                  <c:v>30</c:v>
                 </c:pt>
                 <c:pt idx="152">
-                  <c:v>300</c:v>
+                  <c:v>30</c:v>
                 </c:pt>
                 <c:pt idx="153">
-                  <c:v>300</c:v>
+                  <c:v>30</c:v>
                 </c:pt>
                 <c:pt idx="154">
-                  <c:v>300</c:v>
+                  <c:v>30</c:v>
                 </c:pt>
                 <c:pt idx="155">
-                  <c:v>300</c:v>
+                  <c:v>30</c:v>
                 </c:pt>
                 <c:pt idx="156">
-                  <c:v>300</c:v>
+                  <c:v>30</c:v>
                 </c:pt>
                 <c:pt idx="157">
-                  <c:v>300</c:v>
+                  <c:v>30</c:v>
                 </c:pt>
                 <c:pt idx="158">
-                  <c:v>300</c:v>
+                  <c:v>30</c:v>
                 </c:pt>
                 <c:pt idx="159">
-                  <c:v>300</c:v>
+                  <c:v>30</c:v>
                 </c:pt>
                 <c:pt idx="160">
-                  <c:v>300</c:v>
+                  <c:v>30</c:v>
                 </c:pt>
                 <c:pt idx="161">
-                  <c:v>300</c:v>
+                  <c:v>30</c:v>
                 </c:pt>
                 <c:pt idx="162">
-                  <c:v>300</c:v>
+                  <c:v>30</c:v>
                 </c:pt>
                 <c:pt idx="163">
-                  <c:v>300</c:v>
+                  <c:v>30</c:v>
                 </c:pt>
                 <c:pt idx="164">
-                  <c:v>300</c:v>
+                  <c:v>30</c:v>
                 </c:pt>
                 <c:pt idx="165">
-                  <c:v>300</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="166">
-                  <c:v>300</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="167">
-                  <c:v>300</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="168">
-                  <c:v>300</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="169">
-                  <c:v>300</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="170">
-                  <c:v>300</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="171">
-                  <c:v>300</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="172">
-                  <c:v>300</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="173">
-                  <c:v>300</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="174">
-                  <c:v>300</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="175">
-                  <c:v>300</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="176">
-                  <c:v>300</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="177">
-                  <c:v>300</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="178">
-                  <c:v>300</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="179">
-                  <c:v>300</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="180">
-                  <c:v>300</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="181">
-                  <c:v>200</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="182">
-                  <c:v>200</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="183">
-                  <c:v>200</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="184">
-                  <c:v>200</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="185">
-                  <c:v>200</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="186">
-                  <c:v>200</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="187">
-                  <c:v>200</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="188">
-                  <c:v>200</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="189">
-                  <c:v>200</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="190">
-                  <c:v>200</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="191">
-                  <c:v>200</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="192">
-                  <c:v>200</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="193">
-                  <c:v>200</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="194">
-                  <c:v>200</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="195">
-                  <c:v>200</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="196">
-                  <c:v>200</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="197">
-                  <c:v>200</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="198">
-                  <c:v>200</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="199">
-                  <c:v>200</c:v>
-                </c:pt>
-                <c:pt idx="200">
-                  <c:v>200</c:v>
-                </c:pt>
-                <c:pt idx="201">
-                  <c:v>200</c:v>
-                </c:pt>
-                <c:pt idx="202">
-                  <c:v>200</c:v>
-                </c:pt>
-                <c:pt idx="203">
-                  <c:v>200</c:v>
-                </c:pt>
-                <c:pt idx="204">
-                  <c:v>200</c:v>
-                </c:pt>
-                <c:pt idx="205">
-                  <c:v>200</c:v>
-                </c:pt>
-                <c:pt idx="206">
-                  <c:v>200</c:v>
-                </c:pt>
-                <c:pt idx="207">
-                  <c:v>200</c:v>
-                </c:pt>
-                <c:pt idx="208">
-                  <c:v>200</c:v>
-                </c:pt>
-                <c:pt idx="209">
-                  <c:v>200</c:v>
-                </c:pt>
-                <c:pt idx="210">
-                  <c:v>200</c:v>
-                </c:pt>
-                <c:pt idx="211">
-                  <c:v>200</c:v>
-                </c:pt>
-                <c:pt idx="212">
-                  <c:v>200</c:v>
-                </c:pt>
-                <c:pt idx="213">
-                  <c:v>200</c:v>
-                </c:pt>
-                <c:pt idx="214">
-                  <c:v>200</c:v>
-                </c:pt>
-                <c:pt idx="215">
-                  <c:v>200</c:v>
-                </c:pt>
-                <c:pt idx="216">
-                  <c:v>200</c:v>
-                </c:pt>
-                <c:pt idx="217">
-                  <c:v>200</c:v>
-                </c:pt>
-                <c:pt idx="218">
-                  <c:v>200</c:v>
-                </c:pt>
-                <c:pt idx="219">
-                  <c:v>200</c:v>
-                </c:pt>
-                <c:pt idx="220">
-                  <c:v>200</c:v>
-                </c:pt>
-                <c:pt idx="221">
-                  <c:v>240</c:v>
-                </c:pt>
-                <c:pt idx="222">
-                  <c:v>400</c:v>
-                </c:pt>
-                <c:pt idx="223">
-                  <c:v>400</c:v>
-                </c:pt>
-                <c:pt idx="224">
-                  <c:v>400</c:v>
-                </c:pt>
-                <c:pt idx="225">
-                  <c:v>400</c:v>
-                </c:pt>
-                <c:pt idx="226">
-                  <c:v>400</c:v>
-                </c:pt>
-                <c:pt idx="227">
-                  <c:v>400</c:v>
-                </c:pt>
-                <c:pt idx="228">
-                  <c:v>400</c:v>
-                </c:pt>
-                <c:pt idx="229">
-                  <c:v>400</c:v>
-                </c:pt>
-                <c:pt idx="230">
-                  <c:v>400</c:v>
-                </c:pt>
-                <c:pt idx="231">
-                  <c:v>400</c:v>
-                </c:pt>
-                <c:pt idx="232">
-                  <c:v>400</c:v>
-                </c:pt>
-                <c:pt idx="233">
-                  <c:v>400</c:v>
-                </c:pt>
-                <c:pt idx="234">
-                  <c:v>400</c:v>
-                </c:pt>
-                <c:pt idx="235">
-                  <c:v>400</c:v>
-                </c:pt>
-                <c:pt idx="236">
-                  <c:v>400</c:v>
-                </c:pt>
-                <c:pt idx="237">
-                  <c:v>400</c:v>
-                </c:pt>
-                <c:pt idx="238">
-                  <c:v>400</c:v>
-                </c:pt>
-                <c:pt idx="239">
-                  <c:v>400</c:v>
-                </c:pt>
-                <c:pt idx="240">
-                  <c:v>400</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
-          <c:smooth val="1"/>
+          <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="76664192"/>
-        <c:axId val="76662656"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>PV</c:v>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Log6'!$A$4:$A$244</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="241"/>
+                <c:pt idx="0">
+                  <c:v>1.434999942779541</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.3650000095367432</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>11.309999942779541</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>16.33299994468689</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>21.325000047683716</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>26.348000049591064</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>31.358000040054321</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>36.397000074386597</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>41.404000043869019</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>46.38100004196167</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>51.420000076293945</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>56.430000066757202</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>61.453999996185303</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>66.446000099182129</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>71.469000101089478</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>76.460999965667725</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>81.5</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>86.506999969482422</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>91.499000072479248</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>96.522000074386597</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>101.52999997138977</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>106.53800010681152</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>111.56100010871887</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>116.56900000572205</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>121.59400010108948</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>126.6010000705719</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>131.60899996757507</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>136.63199996948242</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>141.64000010490417</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>146.6470000743866</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>151.65700006484985</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>156.66499996185303</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>161.70300006866455</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>166.6949999332428</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>171.70300006866455</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>176.73900008201599</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>181.71700000762939</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>186.74000000953674</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>191.7480001449585</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>196.75500011444092</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>201.77800011634827</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>206.76999998092651</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>211.77800011634827</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>216.78600001335144</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>221.80900001525879</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>226.83200001716614</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>231.84000015258789</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>236.84700012207031</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>241.88800001144409</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>246.88000011444092</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>251.88800001144409</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>256.89499998092651</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>261.90300011634827</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>266.92600011825562</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>271.95099997520447</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>276.94300007820129</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>281.96700000762939</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>286.95900011062622</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>291.96600008010864</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>297.22500014305115</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>302.24900007247925</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>307.0220000743866</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>312.04500007629395</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>317.06900000572205</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>322.17000007629395</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>327.05299997329712</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>332.09299993515015</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>337.1010000705719</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>342.10899996757507</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>347.13199996948242</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>352.12400007247925</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>357.13199996948242</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>362.17199993133545</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>367.16400003433228</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>372.17199993133545</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>377.1949999332428</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>382.20300006866455</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>387.2260000705719</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>392.23600006103516</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>397.24300003051758</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>402.25100016593933</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>407.2739999294281</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>412.29800009727478</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>417.28999996185303</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>422.31500005722046</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>427.32299995422363</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>432.31500005722046</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>437.35400009155273</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>442.34599995613098</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>447.35300016403198</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>452.36300015449524</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>457.37100005149841</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>462.37800002098083</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>467.40199995040894</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>472.40900015830994</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>477.43200016021729</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>482.42600011825562</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>487.45000004768372</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>492.45700001716614</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>497.44900012016296</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>502.50399994850159</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>507.48000001907349</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>512.50500011444092</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>517.52800011634827</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>522.51999998092651</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>527.54400014877319</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>532.55100011825562</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>537.55900001525879</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>542.60000014305115</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>547.59200000762939</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>552.59899997711182</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>557.62199997901917</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>562.63000011444092</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>567.65300011634827</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>572.6470000743866</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>577.65499997138977</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>582.66300010681152</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>587.67000007629395</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>592.70900011062622</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>597.70099997520447</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>602.7260000705719</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>607.76500010490417</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>612.75699996948242</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>617.77999997138977</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>622.7720000743866</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>627.77999997138977</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>632.82100009918213</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>637.81299996376038</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>643.40199995040894</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>647.83299994468689</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>652.85599994659424</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>657.87899994850159</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>662.8730001449585</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>667.88100004196167</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>672.90400004386902</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>677.89600014686584</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>682.93499994277954</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>687.92700004577637</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>692.93799996376038</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>697.9760000705719</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>702.96799993515015</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>707.9760000705719</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>712.99900007247925</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>718.00699996948242</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>723.0460000038147</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>728.00600004196167</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>733.02999997138977</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>738.05299997329712</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>743.05999994277954</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>748.09899997711182</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>753.09100008010864</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>758.1010000705719</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>763.10800004005432</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>768.13199996948242</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>773.17000007629395</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>778.1470000743866</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>783.17000007629395</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>788.1800000667572</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>793.18700003623962</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>798.24200010299683</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>803.20300006866455</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>808.2260000705719</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>813.26500010490417</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>818.24200010299683</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>823.26500010490417</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>828.27300000190735</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>833.27999997138977</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>838.33500003814697</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>843.33000016212463</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>848.33899998664856</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>853.34700012207031</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>858.35500001907349</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>863.39300012588501</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>868.37000012397766</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>873.39300012588501</c:v>
+                </c:pt>
+                <c:pt idx="175">
+                  <c:v>878.40300011634827</c:v>
+                </c:pt>
+                <c:pt idx="176">
+                  <c:v>883.41000008583069</c:v>
+                </c:pt>
+                <c:pt idx="177">
+                  <c:v>888.46500015258789</c:v>
+                </c:pt>
+                <c:pt idx="178">
+                  <c:v>893.42499995231628</c:v>
+                </c:pt>
+                <c:pt idx="179">
+                  <c:v>898.44900012016296</c:v>
+                </c:pt>
+                <c:pt idx="180">
+                  <c:v>903.58100008964539</c:v>
+                </c:pt>
+                <c:pt idx="181">
+                  <c:v>908.45000004768372</c:v>
+                </c:pt>
+                <c:pt idx="182">
+                  <c:v>913.47399997711182</c:v>
+                </c:pt>
+                <c:pt idx="183">
+                  <c:v>918.46600008010864</c:v>
+                </c:pt>
+                <c:pt idx="184">
+                  <c:v>923.48900008201599</c:v>
+                </c:pt>
+                <c:pt idx="185">
+                  <c:v>928.51200008392334</c:v>
+                </c:pt>
+                <c:pt idx="186">
+                  <c:v>933.50399994850159</c:v>
+                </c:pt>
+                <c:pt idx="187">
+                  <c:v>938.51399993896484</c:v>
+                </c:pt>
+                <c:pt idx="188">
+                  <c:v>943.53699994087219</c:v>
+                </c:pt>
+                <c:pt idx="189">
+                  <c:v>948.54400014877319</c:v>
+                </c:pt>
+                <c:pt idx="190">
+                  <c:v>953.58299994468689</c:v>
+                </c:pt>
+                <c:pt idx="191">
+                  <c:v>958.59100008010864</c:v>
+                </c:pt>
+                <c:pt idx="192">
+                  <c:v>963.58299994468689</c:v>
+                </c:pt>
+                <c:pt idx="193">
+                  <c:v>968.6100001335144</c:v>
+                </c:pt>
+                <c:pt idx="194">
+                  <c:v>973.60199999809265</c:v>
+                </c:pt>
+                <c:pt idx="195">
+                  <c:v>978.6560001373291</c:v>
+                </c:pt>
+                <c:pt idx="196">
+                  <c:v>983.6340000629425</c:v>
+                </c:pt>
+                <c:pt idx="197">
+                  <c:v>988.64100003242493</c:v>
+                </c:pt>
+                <c:pt idx="198">
+                  <c:v>993.69600009918213</c:v>
+                </c:pt>
+                <c:pt idx="199">
+                  <c:v>998.67199993133545</c:v>
+                </c:pt>
+                <c:pt idx="200">
+                  <c:v>1003.683000087738</c:v>
+                </c:pt>
+                <c:pt idx="201">
+                  <c:v>1008.7220001220703</c:v>
+                </c:pt>
+                <c:pt idx="202">
+                  <c:v>1013.7139999866486</c:v>
+                </c:pt>
+                <c:pt idx="203">
+                  <c:v>1018.7369999885559</c:v>
+                </c:pt>
+                <c:pt idx="204">
+                  <c:v>1023.7290000915527</c:v>
+                </c:pt>
+                <c:pt idx="205">
+                  <c:v>1028.768000125885</c:v>
+                </c:pt>
+                <c:pt idx="206">
+                  <c:v>1033.7929999828339</c:v>
+                </c:pt>
+                <c:pt idx="207">
+                  <c:v>1038.7539999485016</c:v>
+                </c:pt>
+                <c:pt idx="208">
+                  <c:v>1043.7769999504089</c:v>
+                </c:pt>
+                <c:pt idx="209">
+                  <c:v>1048.7850000858307</c:v>
+                </c:pt>
+                <c:pt idx="210">
+                  <c:v>1053.7920000553131</c:v>
+                </c:pt>
+                <c:pt idx="211">
+                  <c:v>1058.8619999885559</c:v>
+                </c:pt>
+                <c:pt idx="212">
+                  <c:v>1063.8250000476837</c:v>
+                </c:pt>
+                <c:pt idx="213">
+                  <c:v>1068.8329999446869</c:v>
+                </c:pt>
+                <c:pt idx="214">
+                  <c:v>1073.8559999465942</c:v>
+                </c:pt>
+                <c:pt idx="215">
+                  <c:v>1078.8630001544952</c:v>
+                </c:pt>
+                <c:pt idx="216">
+                  <c:v>1083.9179999828339</c:v>
+                </c:pt>
+                <c:pt idx="217">
+                  <c:v>1088.8940000534058</c:v>
+                </c:pt>
+                <c:pt idx="218">
+                  <c:v>1093.904000043869</c:v>
+                </c:pt>
+                <c:pt idx="219">
+                  <c:v>1098.9579999446869</c:v>
+                </c:pt>
+                <c:pt idx="220">
+                  <c:v>1103.9349999427795</c:v>
+                </c:pt>
+                <c:pt idx="221">
+                  <c:v>1108.9579999446869</c:v>
+                </c:pt>
+                <c:pt idx="222">
+                  <c:v>1113.9390001296997</c:v>
+                </c:pt>
+                <c:pt idx="223">
+                  <c:v>1118.9620001316071</c:v>
+                </c:pt>
+                <c:pt idx="224">
+                  <c:v>1123.9869999885559</c:v>
+                </c:pt>
+                <c:pt idx="225">
+                  <c:v>1128.9790000915527</c:v>
+                </c:pt>
+                <c:pt idx="226">
+                  <c:v>1134.0030000209808</c:v>
+                </c:pt>
+                <c:pt idx="227">
+                  <c:v>1139.0099999904633</c:v>
+                </c:pt>
+                <c:pt idx="228">
+                  <c:v>1144.018000125885</c:v>
+                </c:pt>
+                <c:pt idx="229">
+                  <c:v>1149.0720000267029</c:v>
+                </c:pt>
+                <c:pt idx="230">
+                  <c:v>1154.0329999923706</c:v>
+                </c:pt>
+                <c:pt idx="231">
+                  <c:v>1159.0880000591278</c:v>
+                </c:pt>
+                <c:pt idx="232">
+                  <c:v>1164.0800001621246</c:v>
+                </c:pt>
+                <c:pt idx="233">
+                  <c:v>1169.103000164032</c:v>
+                </c:pt>
+                <c:pt idx="234">
+                  <c:v>1174.1419999599457</c:v>
+                </c:pt>
+                <c:pt idx="235">
+                  <c:v>1179.1019999980927</c:v>
+                </c:pt>
+                <c:pt idx="236">
+                  <c:v>1184.0940001010895</c:v>
+                </c:pt>
+                <c:pt idx="237">
+                  <c:v>1189.1500000953674</c:v>
+                </c:pt>
+                <c:pt idx="238">
+                  <c:v>1194.1570000648499</c:v>
+                </c:pt>
+                <c:pt idx="239">
+                  <c:v>1199.1960000991821</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Log6'!$I$4:$I$244</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="241"/>
+                <c:pt idx="0">
+                  <c:v>40.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>40.200000000000003</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>39.9</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>38.5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>38.799999999999997</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>38.299999999999997</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>39.6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>40.200000000000003</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>39.6</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>39.700000000000003</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>39.299999999999997</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>39.1</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>39.9</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>40.4</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>40.299999999999997</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>40.299999999999997</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>40.4</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>40.799999999999997</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>40.6</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>40.200000000000003</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>40.1</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>40.200000000000003</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>40.1</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>40.6</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>40.4</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>40.1</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>39.9</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>39.5</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>39.9</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>39.9</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>39.5</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>40.1</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>40.1</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>39.9</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>39.700000000000003</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>40.1</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>39.9</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>40.299999999999997</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>40.200000000000003</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>40.299999999999997</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>41.9</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>41.7</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>43.1</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>43.5</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>44.2</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>44.1</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>44.2</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>44.5</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>44.5</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>45.9</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>45.1</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>46.6</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>46.6</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>46.9</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>47.8</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>47.7</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>47.9</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>48.4</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>48.8</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>48.8</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>49.5</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>50.9</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>51.1</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>51.6</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>51.9</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>51.8</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>52.1</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>52.3</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>52.6</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>52.6</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>54.1</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>52.4</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>49.9</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>49.5</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>50.3</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>51.1</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>51.2</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>50.3</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>48.6</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>50.2</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>50.8</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>50.2</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>48.9</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>50.1</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>50.7</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>50.8</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>50.3</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>49.9</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>50.6</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>50.1</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>50.4</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>49.2</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>48.9</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>49.2</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>48.7</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>49.9</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>51.2</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>50.8</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>49.3</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>48.7</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>49.1</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>50.7</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>50.9</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>51.1</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>50.9</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>49.8</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>48.6</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>49.4</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>49.3</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>50.2</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>50.9</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>50.8</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>49.2</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>48.9</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>49.1</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>50.7</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>50.8</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>51.4</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>48.4</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>45.2</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>41.9</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>38.6</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>34.700000000000003</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>31.5</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>30.9</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>30.2</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>29.6</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>29.2</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>30.3</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>30.2</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>28.9</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>29.7</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>30.5</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>30.9</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>29.5</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>29.1</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>29.2</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>29.3</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>29.3</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>30.5</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>29.6</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>30.5</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>30.2</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>30.8</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>30.8</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>29.3</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>30.1</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>30.3</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>30.6</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>30.6</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>29.6</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>29.1</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>28.9</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>22.9</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>19.600000000000001</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>17.8</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>17.5</c:v>
+                </c:pt>
+                <c:pt idx="175">
+                  <c:v>17.7</c:v>
+                </c:pt>
+                <c:pt idx="176">
+                  <c:v>19.3</c:v>
+                </c:pt>
+                <c:pt idx="177">
+                  <c:v>19.8</c:v>
+                </c:pt>
+                <c:pt idx="178">
+                  <c:v>18.600000000000001</c:v>
+                </c:pt>
+                <c:pt idx="179">
+                  <c:v>19.899999999999999</c:v>
+                </c:pt>
+                <c:pt idx="180">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="181">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="182">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="183">
+                  <c:v>19.2</c:v>
+                </c:pt>
+                <c:pt idx="184">
+                  <c:v>20.100000000000001</c:v>
+                </c:pt>
+                <c:pt idx="185">
+                  <c:v>20.8</c:v>
+                </c:pt>
+                <c:pt idx="186">
+                  <c:v>20.100000000000001</c:v>
+                </c:pt>
+                <c:pt idx="187">
+                  <c:v>20.9</c:v>
+                </c:pt>
+                <c:pt idx="188">
+                  <c:v>20.6</c:v>
+                </c:pt>
+                <c:pt idx="189">
+                  <c:v>21.1</c:v>
+                </c:pt>
+                <c:pt idx="190">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="191">
+                  <c:v>19.8</c:v>
+                </c:pt>
+                <c:pt idx="192">
+                  <c:v>18.399999999999999</c:v>
+                </c:pt>
+                <c:pt idx="193">
+                  <c:v>18.8</c:v>
+                </c:pt>
+                <c:pt idx="194">
+                  <c:v>19.100000000000001</c:v>
+                </c:pt>
+                <c:pt idx="195">
+                  <c:v>20.399999999999999</c:v>
+                </c:pt>
+                <c:pt idx="196">
+                  <c:v>20.6</c:v>
+                </c:pt>
+                <c:pt idx="197">
+                  <c:v>20.100000000000001</c:v>
+                </c:pt>
+                <c:pt idx="198">
+                  <c:v>20.100000000000001</c:v>
+                </c:pt>
+                <c:pt idx="199">
+                  <c:v>21.1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="242507856"/>
+        <c:axId val="242507296"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="76664192"/>
+        <c:axId val="242507856"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="1000"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>Time (s)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="76662656"/>
+        <c:crossAx val="242507296"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="76662656"/>
+        <c:axId val="242507296"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="100"/>
+          <c:min val="0"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>PV,</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-GB" baseline="0"/>
+                  <a:t> SP. OP (%)</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-GB"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="76664192"/>
+        <c:crossAx val="242507856"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3096,8 +4312,11 @@
     <c:legend>
       <c:legendPos val="r"/>
       <c:layout/>
+      <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
@@ -3109,12 +4328,24 @@
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="en-GB"/>
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:chart>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -3125,6 +4356,7 @@
           </c:spPr>
           <c:trendline>
             <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
             <c:dispEq val="1"/>
             <c:trendlineLbl>
               <c:layout/>
@@ -3133,7 +4365,7 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>'Log6'!$K$129:$K$131</c:f>
+              <c:f>'Log6'!$L$129:$L$131</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
@@ -3151,7 +4383,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Log6'!$L$129:$L$131</c:f>
+              <c:f>'Log6'!$M$129:$M$131</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
@@ -3167,32 +4399,47 @@
               </c:numCache>
             </c:numRef>
           </c:yVal>
+          <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="75297920"/>
-        <c:axId val="75292032"/>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="333688960"/>
+        <c:axId val="243042704"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="75297920"/>
+        <c:axId val="333688960"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="75292032"/>
+        <c:crossAx val="243042704"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="75292032"/>
+        <c:axId val="243042704"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="75297920"/>
+        <c:crossAx val="333688960"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3200,8 +4447,11 @@
     <c:legend>
       <c:legendPos val="r"/>
       <c:layout/>
+      <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
@@ -3215,16 +4465,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>190499</xdr:rowOff>
+      <xdr:rowOff>9524</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>257175</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>104774</xdr:rowOff>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>114299</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3245,13 +4495,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>12</xdr:col>
+      <xdr:col>13</xdr:col>
       <xdr:colOff>476250</xdr:colOff>
       <xdr:row>123</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>20</xdr:col>
+      <xdr:col>21</xdr:col>
       <xdr:colOff>171450</xdr:colOff>
       <xdr:row>137</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
@@ -3319,7 +4569,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -3351,9 +4601,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -3385,6 +4636,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -3560,17 +4812,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="7" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>3</v>
       </c>
@@ -3578,7 +4830,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -3607,17 +4859,17 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="7" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>3</v>
       </c>
@@ -3625,7 +4877,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -3648,7 +4900,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>1.8410000801086426</v>
       </c>
@@ -3671,7 +4923,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>6.5829999446868896</v>
       </c>
@@ -3694,7 +4946,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>12.01200008392334</v>
       </c>
@@ -3717,7 +4969,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>16.66100001335144</v>
       </c>
@@ -3746,17 +4998,17 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G56"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="7" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>3</v>
       </c>
@@ -3764,7 +5016,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -3787,7 +5039,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>1.8090000152587891</v>
       </c>
@@ -3810,7 +5062,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>6.5049998760223389</v>
       </c>
@@ -3833,7 +5085,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>11.418999910354614</v>
       </c>
@@ -3856,7 +5108,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>16.441999912261963</v>
       </c>
@@ -3879,7 +5131,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>21.434000015258789</v>
       </c>
@@ -3902,7 +5154,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>26.441999912261963</v>
       </c>
@@ -3925,7 +5177,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>31.527999877929687</v>
       </c>
@@ -3948,7 +5200,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>36.565999984741211</v>
       </c>
@@ -3971,7 +5223,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>41.808000087738037</v>
       </c>
@@ -3994,7 +5246,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:7">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>46.578000068664551</v>
       </c>
@@ -4017,7 +5269,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:7">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>51.584000110626221</v>
       </c>
@@ -4040,7 +5292,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:7">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>56.60699987411499</v>
       </c>
@@ -4063,7 +5315,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:7">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>61.629999876022339</v>
       </c>
@@ -4086,7 +5338,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:7">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>66.621999979019165</v>
       </c>
@@ -4109,7 +5361,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:7">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>71.645999908447266</v>
       </c>
@@ -4132,7 +5384,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:7">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>76.652999877929688</v>
       </c>
@@ -4155,7 +5407,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:7">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>81.66100001335144</v>
       </c>
@@ -4178,7 +5430,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:7">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>86.667999982833862</v>
       </c>
@@ -4201,7 +5453,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:7">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>91.660000085830688</v>
       </c>
@@ -4224,7 +5476,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:7">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>96.667999982833862</v>
       </c>
@@ -4247,7 +5499,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:7">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>101.70700001716614</v>
       </c>
@@ -4270,7 +5522,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:7">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>106.69899988174438</v>
       </c>
@@ -4293,7 +5545,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:7">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>111.72199988365173</v>
       </c>
@@ -4316,7 +5568,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:7">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>116.71399998664856</v>
       </c>
@@ -4339,7 +5591,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:7">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>121.73699998855591</v>
       </c>
@@ -4362,7 +5614,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:7">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>126.77600002288818</v>
       </c>
@@ -4385,7 +5637,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:7">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>131.75300002098083</v>
       </c>
@@ -4408,7 +5660,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:7">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>136.77600002288818</v>
       </c>
@@ -4431,7 +5683,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:7">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>141.79900002479553</v>
       </c>
@@ -4454,7 +5706,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:7">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>146.79099988937378</v>
       </c>
@@ -4477,7 +5729,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:7">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>151.81399989128113</v>
       </c>
@@ -4500,7 +5752,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:7">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>156.93099999427795</v>
       </c>
@@ -4523,7 +5775,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:7">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>161.92300009727478</v>
       </c>
@@ -4546,7 +5798,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:7">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>166.93099999427795</v>
       </c>
@@ -4569,7 +5821,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:7">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>171.93799996376038</v>
       </c>
@@ -4592,7 +5844,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:7">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>176.94600009918213</v>
       </c>
@@ -4615,7 +5867,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:7">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>181.93799996376038</v>
       </c>
@@ -4638,7 +5890,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:7">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>186.9449999332428</v>
       </c>
@@ -4661,7 +5913,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:7">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>191.95300006866455</v>
       </c>
@@ -4684,7 +5936,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:7">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>196.96099996566772</v>
       </c>
@@ -4707,7 +5959,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:7">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>201.75</v>
       </c>
@@ -4730,7 +5982,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:7">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>207.00699996948242</v>
       </c>
@@ -4753,7 +6005,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:7">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>212.0460000038147</v>
       </c>
@@ -4776,7 +6028,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:7">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>217.00699996948242</v>
       </c>
@@ -4799,7 +6051,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:7">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>222.04500007629395</v>
       </c>
@@ -4822,7 +6074,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:7">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>227.03699994087219</v>
       </c>
@@ -4845,7 +6097,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:7">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>232.04500007629395</v>
       </c>
@@ -4868,7 +6120,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:7">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>237.05299997329712</v>
       </c>
@@ -4891,7 +6143,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:7">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>242.07599997520447</v>
       </c>
@@ -4914,7 +6166,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:7">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>247.08400011062622</v>
       </c>
@@ -4937,7 +6189,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:7">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>252.09100008010864</v>
       </c>
@@ -4960,7 +6212,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:7">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>257.09899997711182</v>
       </c>
@@ -4983,7 +6235,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:7">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>262.12199997901917</v>
       </c>
@@ -5012,17 +6264,17 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="7" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>3</v>
       </c>
@@ -5030,7 +6282,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -5053,7 +6305,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>1.434999942779541</v>
       </c>
@@ -5076,7 +6328,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>6.3650000095367432</v>
       </c>
@@ -5099,7 +6351,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>11.309999942779541</v>
       </c>
@@ -5122,7 +6374,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>16.351999998092651</v>
       </c>
@@ -5145,7 +6397,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>21.328000068664551</v>
       </c>
@@ -5168,7 +6420,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>26.351999998092651</v>
       </c>
@@ -5191,7 +6443,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>31.375</v>
       </c>
@@ -5214,7 +6466,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>36.381999969482422</v>
       </c>
@@ -5237,7 +6489,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>41.401000022888184</v>
       </c>
@@ -5260,7 +6512,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:7">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>46.385999917984009</v>
       </c>
@@ -5289,17 +6541,19 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G18"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H26" sqref="H26"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="7" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>3</v>
       </c>
@@ -5307,7 +6561,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -5330,7 +6584,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>1.4200000762939453</v>
       </c>
@@ -5353,7 +6607,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>6.3810000419616699</v>
       </c>
@@ -5376,7 +6630,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>11.325999975204468</v>
       </c>
@@ -5399,7 +6653,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>16.351000070571899</v>
       </c>
@@ -5422,7 +6676,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>21.312000036239624</v>
       </c>
@@ -5445,7 +6699,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>26.351000070571899</v>
       </c>
@@ -5468,7 +6722,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>31.358000040054321</v>
       </c>
@@ -5491,7 +6745,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>36.366000175476074</v>
       </c>
@@ -5514,7 +6768,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>41.389000177383423</v>
       </c>
@@ -5537,7 +6791,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:7">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>46.38100004196167</v>
       </c>
@@ -5560,7 +6814,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:7">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>51.404000043869019</v>
       </c>
@@ -5583,7 +6837,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:7">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>56.412000179290771</v>
       </c>
@@ -5606,7 +6860,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:7">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>61.43500018119812</v>
       </c>
@@ -5629,7 +6883,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:7">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>66.443000078201294</v>
       </c>
@@ -5652,7 +6906,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:7">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>71.46399998664856</v>
       </c>
@@ -5681,16 +6935,16 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L244"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:N243"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A118" workbookViewId="0">
-      <selection activeCell="I134" sqref="I134"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="O38" sqref="O38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>3</v>
       </c>
@@ -5698,7 +6952,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -5720,8 +6974,17 @@
       <c r="G3" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:7">
+      <c r="I3" t="s">
+        <v>6</v>
+      </c>
+      <c r="J3" t="s">
+        <v>7</v>
+      </c>
+      <c r="K3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>1.434999942779541</v>
       </c>
@@ -5743,8 +7006,20 @@
       <c r="G4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:7">
+      <c r="I4">
+        <f t="shared" ref="I4:I35" si="0">B20/10</f>
+        <v>40.5</v>
+      </c>
+      <c r="J4">
+        <f t="shared" ref="J4:J35" si="1">D20/10</f>
+        <v>40</v>
+      </c>
+      <c r="K4">
+        <f t="shared" ref="K4:K35" si="2">E20/10</f>
+        <v>35.9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>6.3650000095367432</v>
       </c>
@@ -5766,8 +7041,20 @@
       <c r="G5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:7">
+      <c r="I5">
+        <f t="shared" si="0"/>
+        <v>40.200000000000003</v>
+      </c>
+      <c r="J5">
+        <f t="shared" si="1"/>
+        <v>40</v>
+      </c>
+      <c r="K5">
+        <f t="shared" si="2"/>
+        <v>29.7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>11.309999942779541</v>
       </c>
@@ -5789,8 +7076,20 @@
       <c r="G6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:7">
+      <c r="I6">
+        <f t="shared" si="0"/>
+        <v>39.9</v>
+      </c>
+      <c r="J6">
+        <f t="shared" si="1"/>
+        <v>40</v>
+      </c>
+      <c r="K6">
+        <f t="shared" si="2"/>
+        <v>33.1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>16.33299994468689</v>
       </c>
@@ -5812,8 +7111,20 @@
       <c r="G7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:7">
+      <c r="I7">
+        <f t="shared" si="0"/>
+        <v>38.5</v>
+      </c>
+      <c r="J7">
+        <f t="shared" si="1"/>
+        <v>40</v>
+      </c>
+      <c r="K7">
+        <f t="shared" si="2"/>
+        <v>35.200000000000003</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>21.325000047683716</v>
       </c>
@@ -5835,8 +7146,20 @@
       <c r="G8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:7">
+      <c r="I8">
+        <f t="shared" si="0"/>
+        <v>38.799999999999997</v>
+      </c>
+      <c r="J8">
+        <f t="shared" si="1"/>
+        <v>40</v>
+      </c>
+      <c r="K8">
+        <f t="shared" si="2"/>
+        <v>53.5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>26.348000049591064</v>
       </c>
@@ -5858,8 +7181,20 @@
       <c r="G9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:7">
+      <c r="I9">
+        <f t="shared" si="0"/>
+        <v>38.299999999999997</v>
+      </c>
+      <c r="J9">
+        <f t="shared" si="1"/>
+        <v>40</v>
+      </c>
+      <c r="K9">
+        <f t="shared" si="2"/>
+        <v>43.5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>31.358000040054321</v>
       </c>
@@ -5881,8 +7216,20 @@
       <c r="G10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:7">
+      <c r="I10">
+        <f t="shared" si="0"/>
+        <v>39.6</v>
+      </c>
+      <c r="J10">
+        <f t="shared" si="1"/>
+        <v>40</v>
+      </c>
+      <c r="K10">
+        <f t="shared" si="2"/>
+        <v>54.5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>36.397000074386597</v>
       </c>
@@ -5904,8 +7251,20 @@
       <c r="G11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:7">
+      <c r="I11">
+        <f t="shared" si="0"/>
+        <v>40.200000000000003</v>
+      </c>
+      <c r="J11">
+        <f t="shared" si="1"/>
+        <v>40</v>
+      </c>
+      <c r="K11">
+        <f t="shared" si="2"/>
+        <v>36</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>41.404000043869019</v>
       </c>
@@ -5927,8 +7286,20 @@
       <c r="G12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:7">
+      <c r="I12">
+        <f t="shared" si="0"/>
+        <v>39.6</v>
+      </c>
+      <c r="J12">
+        <f t="shared" si="1"/>
+        <v>40</v>
+      </c>
+      <c r="K12">
+        <f t="shared" si="2"/>
+        <v>35.799999999999997</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>46.38100004196167</v>
       </c>
@@ -5950,8 +7321,20 @@
       <c r="G13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:7">
+      <c r="I13">
+        <f t="shared" si="0"/>
+        <v>39.700000000000003</v>
+      </c>
+      <c r="J13">
+        <f t="shared" si="1"/>
+        <v>40</v>
+      </c>
+      <c r="K13">
+        <f t="shared" si="2"/>
+        <v>47.6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>51.420000076293945</v>
       </c>
@@ -5973,8 +7356,20 @@
       <c r="G14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:7">
+      <c r="I14">
+        <f t="shared" si="0"/>
+        <v>39.299999999999997</v>
+      </c>
+      <c r="J14">
+        <f t="shared" si="1"/>
+        <v>40</v>
+      </c>
+      <c r="K14">
+        <f t="shared" si="2"/>
+        <v>43.3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>56.430000066757202</v>
       </c>
@@ -5996,8 +7391,20 @@
       <c r="G15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:7">
+      <c r="I15">
+        <f t="shared" si="0"/>
+        <v>39.1</v>
+      </c>
+      <c r="J15">
+        <f t="shared" si="1"/>
+        <v>40</v>
+      </c>
+      <c r="K15">
+        <f t="shared" si="2"/>
+        <v>50.1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>61.453999996185303</v>
       </c>
@@ -6019,8 +7426,20 @@
       <c r="G16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:7">
+      <c r="I16">
+        <f t="shared" si="0"/>
+        <v>39.9</v>
+      </c>
+      <c r="J16">
+        <f t="shared" si="1"/>
+        <v>40</v>
+      </c>
+      <c r="K16">
+        <f t="shared" si="2"/>
+        <v>51.8</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>66.446000099182129</v>
       </c>
@@ -6042,8 +7461,20 @@
       <c r="G17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:7">
+      <c r="I17">
+        <f t="shared" si="0"/>
+        <v>40.4</v>
+      </c>
+      <c r="J17">
+        <f t="shared" si="1"/>
+        <v>40</v>
+      </c>
+      <c r="K17">
+        <f t="shared" si="2"/>
+        <v>40.700000000000003</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>71.469000101089478</v>
       </c>
@@ -6065,8 +7496,20 @@
       <c r="G18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:7">
+      <c r="I18">
+        <f t="shared" si="0"/>
+        <v>40.299999999999997</v>
+      </c>
+      <c r="J18">
+        <f t="shared" si="1"/>
+        <v>40</v>
+      </c>
+      <c r="K18">
+        <f t="shared" si="2"/>
+        <v>38.5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>76.460999965667725</v>
       </c>
@@ -6088,8 +7531,20 @@
       <c r="G19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:7">
+      <c r="I19">
+        <f t="shared" si="0"/>
+        <v>40.299999999999997</v>
+      </c>
+      <c r="J19">
+        <f t="shared" si="1"/>
+        <v>40</v>
+      </c>
+      <c r="K19">
+        <f t="shared" si="2"/>
+        <v>42.2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>81.5</v>
       </c>
@@ -6111,8 +7566,20 @@
       <c r="G20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:7">
+      <c r="I20">
+        <f t="shared" si="0"/>
+        <v>40.4</v>
+      </c>
+      <c r="J20">
+        <f t="shared" si="1"/>
+        <v>40</v>
+      </c>
+      <c r="K20">
+        <f t="shared" si="2"/>
+        <v>41.1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>86.506999969482422</v>
       </c>
@@ -6134,8 +7601,20 @@
       <c r="G21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:7">
+      <c r="I21">
+        <f t="shared" si="0"/>
+        <v>40.799999999999997</v>
+      </c>
+      <c r="J21">
+        <f t="shared" si="1"/>
+        <v>40</v>
+      </c>
+      <c r="K21">
+        <f t="shared" si="2"/>
+        <v>39.200000000000003</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>91.499000072479248</v>
       </c>
@@ -6157,8 +7636,20 @@
       <c r="G22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:7">
+      <c r="I22">
+        <f t="shared" si="0"/>
+        <v>40.6</v>
+      </c>
+      <c r="J22">
+        <f t="shared" si="1"/>
+        <v>40</v>
+      </c>
+      <c r="K22">
+        <f t="shared" si="2"/>
+        <v>33.4</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>96.522000074386597</v>
       </c>
@@ -6180,8 +7671,20 @@
       <c r="G23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:7">
+      <c r="I23">
+        <f t="shared" si="0"/>
+        <v>40.200000000000003</v>
+      </c>
+      <c r="J23">
+        <f t="shared" si="1"/>
+        <v>40</v>
+      </c>
+      <c r="K23">
+        <f t="shared" si="2"/>
+        <v>37.299999999999997</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>101.52999997138977</v>
       </c>
@@ -6203,8 +7706,20 @@
       <c r="G24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:7">
+      <c r="I24">
+        <f t="shared" si="0"/>
+        <v>40.1</v>
+      </c>
+      <c r="J24">
+        <f t="shared" si="1"/>
+        <v>40</v>
+      </c>
+      <c r="K24">
+        <f t="shared" si="2"/>
+        <v>40.700000000000003</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>106.53800010681152</v>
       </c>
@@ -6226,8 +7741,20 @@
       <c r="G25">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="1:7">
+      <c r="I25">
+        <f t="shared" si="0"/>
+        <v>40.200000000000003</v>
+      </c>
+      <c r="J25">
+        <f t="shared" si="1"/>
+        <v>40</v>
+      </c>
+      <c r="K25">
+        <f t="shared" si="2"/>
+        <v>39.4</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>111.56100010871887</v>
       </c>
@@ -6249,8 +7776,20 @@
       <c r="G26">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="1:7">
+      <c r="I26">
+        <f t="shared" si="0"/>
+        <v>40.1</v>
+      </c>
+      <c r="J26">
+        <f t="shared" si="1"/>
+        <v>40</v>
+      </c>
+      <c r="K26">
+        <f t="shared" si="2"/>
+        <v>37.200000000000003</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>116.56900000572205</v>
       </c>
@@ -6272,8 +7811,20 @@
       <c r="G27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:7">
+      <c r="I27">
+        <f t="shared" si="0"/>
+        <v>40.6</v>
+      </c>
+      <c r="J27">
+        <f t="shared" si="1"/>
+        <v>40</v>
+      </c>
+      <c r="K27">
+        <f t="shared" si="2"/>
+        <v>38.9</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>121.59400010108948</v>
       </c>
@@ -6295,8 +7846,20 @@
       <c r="G28">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="1:7">
+      <c r="I28">
+        <f t="shared" si="0"/>
+        <v>40.4</v>
+      </c>
+      <c r="J28">
+        <f t="shared" si="1"/>
+        <v>40</v>
+      </c>
+      <c r="K28">
+        <f t="shared" si="2"/>
+        <v>31</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>126.6010000705719</v>
       </c>
@@ -6318,8 +7881,20 @@
       <c r="G29">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="1:7">
+      <c r="I29">
+        <f t="shared" si="0"/>
+        <v>40.1</v>
+      </c>
+      <c r="J29">
+        <f t="shared" si="1"/>
+        <v>40</v>
+      </c>
+      <c r="K29">
+        <f t="shared" si="2"/>
+        <v>35.799999999999997</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>131.60899996757507</v>
       </c>
@@ -6341,8 +7916,20 @@
       <c r="G30">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="1:7">
+      <c r="I30">
+        <f t="shared" si="0"/>
+        <v>39.9</v>
+      </c>
+      <c r="J30">
+        <f t="shared" si="1"/>
+        <v>40</v>
+      </c>
+      <c r="K30">
+        <f t="shared" si="2"/>
+        <v>38.200000000000003</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>136.63199996948242</v>
       </c>
@@ -6364,8 +7951,20 @@
       <c r="G31">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="1:7">
+      <c r="I31">
+        <f t="shared" si="0"/>
+        <v>39.5</v>
+      </c>
+      <c r="J31">
+        <f t="shared" si="1"/>
+        <v>40</v>
+      </c>
+      <c r="K31">
+        <f t="shared" si="2"/>
+        <v>39.1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>141.64000010490417</v>
       </c>
@@ -6387,8 +7986,20 @@
       <c r="G32">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="1:7">
+      <c r="I32">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
+      <c r="J32">
+        <f t="shared" si="1"/>
+        <v>40</v>
+      </c>
+      <c r="K32">
+        <f t="shared" si="2"/>
+        <v>43.8</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>146.6470000743866</v>
       </c>
@@ -6410,8 +8021,20 @@
       <c r="G33">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="1:7">
+      <c r="I33">
+        <f t="shared" si="0"/>
+        <v>39.9</v>
+      </c>
+      <c r="J33">
+        <f t="shared" si="1"/>
+        <v>40</v>
+      </c>
+      <c r="K33">
+        <f t="shared" si="2"/>
+        <v>35.1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>151.65700006484985</v>
       </c>
@@ -6433,8 +8056,20 @@
       <c r="G34">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="1:7">
+      <c r="I34">
+        <f t="shared" si="0"/>
+        <v>39.9</v>
+      </c>
+      <c r="J34">
+        <f t="shared" si="1"/>
+        <v>40</v>
+      </c>
+      <c r="K34">
+        <f t="shared" si="2"/>
+        <v>39.5</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>156.66499996185303</v>
       </c>
@@ -6456,8 +8091,20 @@
       <c r="G35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:7">
+      <c r="I35">
+        <f t="shared" si="0"/>
+        <v>39.5</v>
+      </c>
+      <c r="J35">
+        <f t="shared" si="1"/>
+        <v>40</v>
+      </c>
+      <c r="K35">
+        <f t="shared" si="2"/>
+        <v>39.1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>161.70300006866455</v>
       </c>
@@ -6479,8 +8126,28 @@
       <c r="G36">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="1:7">
+      <c r="I36">
+        <f t="shared" ref="I36:I67" si="3">B52/10</f>
+        <v>40.1</v>
+      </c>
+      <c r="J36">
+        <f t="shared" ref="J36:J67" si="4">D52/10</f>
+        <v>40</v>
+      </c>
+      <c r="K36">
+        <f t="shared" ref="K36:K67" si="5">E52/10</f>
+        <v>45</v>
+      </c>
+      <c r="M36">
+        <f>MAX(I83:I128)</f>
+        <v>51.2</v>
+      </c>
+      <c r="N36">
+        <f>M36-50</f>
+        <v>1.2000000000000028</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>166.6949999332428</v>
       </c>
@@ -6502,8 +8169,28 @@
       <c r="G37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:7">
+      <c r="I37">
+        <f t="shared" si="3"/>
+        <v>40.1</v>
+      </c>
+      <c r="J37">
+        <f t="shared" si="4"/>
+        <v>40</v>
+      </c>
+      <c r="K37">
+        <f t="shared" si="5"/>
+        <v>34.9</v>
+      </c>
+      <c r="M37">
+        <f>MIN(I83:I128)</f>
+        <v>48.6</v>
+      </c>
+      <c r="N37">
+        <f>M37-50</f>
+        <v>-1.3999999999999986</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>171.70300006866455</v>
       </c>
@@ -6525,8 +8212,20 @@
       <c r="G38">
         <v>0</v>
       </c>
-    </row>
-    <row r="39" spans="1:7">
+      <c r="I38">
+        <f t="shared" si="3"/>
+        <v>39.9</v>
+      </c>
+      <c r="J38">
+        <f t="shared" si="4"/>
+        <v>50</v>
+      </c>
+      <c r="K38">
+        <f t="shared" si="5"/>
+        <v>38.299999999999997</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>176.73900008201599</v>
       </c>
@@ -6548,8 +8247,20 @@
       <c r="G39">
         <v>0</v>
       </c>
-    </row>
-    <row r="40" spans="1:7">
+      <c r="I39">
+        <f t="shared" si="3"/>
+        <v>39.700000000000003</v>
+      </c>
+      <c r="J39">
+        <f t="shared" si="4"/>
+        <v>50</v>
+      </c>
+      <c r="K39">
+        <f t="shared" si="5"/>
+        <v>38.299999999999997</v>
+      </c>
+    </row>
+    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>181.71700000762939</v>
       </c>
@@ -6571,8 +8282,20 @@
       <c r="G40">
         <v>0</v>
       </c>
-    </row>
-    <row r="41" spans="1:7">
+      <c r="I40">
+        <f t="shared" si="3"/>
+        <v>40.1</v>
+      </c>
+      <c r="J40">
+        <f t="shared" si="4"/>
+        <v>50</v>
+      </c>
+      <c r="K40">
+        <f t="shared" si="5"/>
+        <v>38.299999999999997</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>186.74000000953674</v>
       </c>
@@ -6594,8 +8317,20 @@
       <c r="G41">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="1:7">
+      <c r="I41">
+        <f t="shared" si="3"/>
+        <v>39.9</v>
+      </c>
+      <c r="J41">
+        <f t="shared" si="4"/>
+        <v>50</v>
+      </c>
+      <c r="K41">
+        <f t="shared" si="5"/>
+        <v>38.299999999999997</v>
+      </c>
+    </row>
+    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>191.7480001449585</v>
       </c>
@@ -6617,8 +8352,20 @@
       <c r="G42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:7">
+      <c r="I42">
+        <f t="shared" si="3"/>
+        <v>40</v>
+      </c>
+      <c r="J42">
+        <f t="shared" si="4"/>
+        <v>50</v>
+      </c>
+      <c r="K42">
+        <f t="shared" si="5"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="43" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>196.75500011444092</v>
       </c>
@@ -6640,8 +8387,20 @@
       <c r="G43">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="1:7">
+      <c r="I43">
+        <f t="shared" si="3"/>
+        <v>40.299999999999997</v>
+      </c>
+      <c r="J43">
+        <f t="shared" si="4"/>
+        <v>50</v>
+      </c>
+      <c r="K43">
+        <f t="shared" si="5"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="44" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>201.77800011634827</v>
       </c>
@@ -6663,8 +8422,20 @@
       <c r="G44">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="1:7">
+      <c r="I44">
+        <f t="shared" si="3"/>
+        <v>40.200000000000003</v>
+      </c>
+      <c r="J44">
+        <f t="shared" si="4"/>
+        <v>50</v>
+      </c>
+      <c r="K44">
+        <f t="shared" si="5"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="45" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>206.76999998092651</v>
       </c>
@@ -6686,8 +8457,20 @@
       <c r="G45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:7">
+      <c r="I45">
+        <f t="shared" si="3"/>
+        <v>40.299999999999997</v>
+      </c>
+      <c r="J45">
+        <f t="shared" si="4"/>
+        <v>50</v>
+      </c>
+      <c r="K45">
+        <f t="shared" si="5"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="46" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>211.77800011634827</v>
       </c>
@@ -6709,8 +8492,20 @@
       <c r="G46">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="1:7">
+      <c r="I46">
+        <f t="shared" si="3"/>
+        <v>41</v>
+      </c>
+      <c r="J46">
+        <f t="shared" si="4"/>
+        <v>50</v>
+      </c>
+      <c r="K46">
+        <f t="shared" si="5"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="47" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>216.78600001335144</v>
       </c>
@@ -6732,8 +8527,20 @@
       <c r="G47">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="1:7">
+      <c r="I47">
+        <f t="shared" si="3"/>
+        <v>41.9</v>
+      </c>
+      <c r="J47">
+        <f t="shared" si="4"/>
+        <v>50</v>
+      </c>
+      <c r="K47">
+        <f t="shared" si="5"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="48" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>221.80900001525879</v>
       </c>
@@ -6755,8 +8562,20 @@
       <c r="G48">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="1:7">
+      <c r="I48">
+        <f t="shared" si="3"/>
+        <v>41.7</v>
+      </c>
+      <c r="J48">
+        <f t="shared" si="4"/>
+        <v>50</v>
+      </c>
+      <c r="K48">
+        <f t="shared" si="5"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>226.83200001716614</v>
       </c>
@@ -6778,8 +8597,20 @@
       <c r="G49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:7">
+      <c r="I49">
+        <f t="shared" si="3"/>
+        <v>43.1</v>
+      </c>
+      <c r="J49">
+        <f t="shared" si="4"/>
+        <v>50</v>
+      </c>
+      <c r="K49">
+        <f t="shared" si="5"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>231.84000015258789</v>
       </c>
@@ -6801,8 +8632,20 @@
       <c r="G50">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="1:7">
+      <c r="I50">
+        <f t="shared" si="3"/>
+        <v>43.5</v>
+      </c>
+      <c r="J50">
+        <f t="shared" si="4"/>
+        <v>50</v>
+      </c>
+      <c r="K50">
+        <f t="shared" si="5"/>
+        <v>87.9</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>236.84700012207031</v>
       </c>
@@ -6824,8 +8667,20 @@
       <c r="G51">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="1:7">
+      <c r="I51">
+        <f t="shared" si="3"/>
+        <v>44.2</v>
+      </c>
+      <c r="J51">
+        <f t="shared" si="4"/>
+        <v>50</v>
+      </c>
+      <c r="K51">
+        <f t="shared" si="5"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>241.88800001144409</v>
       </c>
@@ -6847,8 +8702,20 @@
       <c r="G52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:7">
+      <c r="I52">
+        <f t="shared" si="3"/>
+        <v>44.1</v>
+      </c>
+      <c r="J52">
+        <f t="shared" si="4"/>
+        <v>50</v>
+      </c>
+      <c r="K52">
+        <f t="shared" si="5"/>
+        <v>94.8</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>246.88000011444092</v>
       </c>
@@ -6870,8 +8737,20 @@
       <c r="G53">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="1:7">
+      <c r="I53">
+        <f t="shared" si="3"/>
+        <v>44.2</v>
+      </c>
+      <c r="J53">
+        <f t="shared" si="4"/>
+        <v>50</v>
+      </c>
+      <c r="K53">
+        <f t="shared" si="5"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>251.88800001144409</v>
       </c>
@@ -6893,8 +8772,20 @@
       <c r="G54">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="1:7">
+      <c r="I54">
+        <f t="shared" si="3"/>
+        <v>44.5</v>
+      </c>
+      <c r="J54">
+        <f t="shared" si="4"/>
+        <v>50</v>
+      </c>
+      <c r="K54">
+        <f t="shared" si="5"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>256.89499998092651</v>
       </c>
@@ -6916,8 +8807,20 @@
       <c r="G55">
         <v>0</v>
       </c>
-    </row>
-    <row r="56" spans="1:7">
+      <c r="I55">
+        <f t="shared" si="3"/>
+        <v>44.5</v>
+      </c>
+      <c r="J55">
+        <f t="shared" si="4"/>
+        <v>50</v>
+      </c>
+      <c r="K55">
+        <f t="shared" si="5"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>261.90300011634827</v>
       </c>
@@ -6939,8 +8842,20 @@
       <c r="G56">
         <v>0</v>
       </c>
-    </row>
-    <row r="57" spans="1:7">
+      <c r="I56">
+        <f t="shared" si="3"/>
+        <v>45.9</v>
+      </c>
+      <c r="J56">
+        <f t="shared" si="4"/>
+        <v>50</v>
+      </c>
+      <c r="K56">
+        <f t="shared" si="5"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>266.92600011825562</v>
       </c>
@@ -6962,8 +8877,20 @@
       <c r="G57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:7">
+      <c r="I57">
+        <f t="shared" si="3"/>
+        <v>45.1</v>
+      </c>
+      <c r="J57">
+        <f t="shared" si="4"/>
+        <v>50</v>
+      </c>
+      <c r="K57">
+        <f t="shared" si="5"/>
+        <v>86.5</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>271.95099997520447</v>
       </c>
@@ -6985,8 +8912,20 @@
       <c r="G58">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="1:7">
+      <c r="I58">
+        <f t="shared" si="3"/>
+        <v>46.6</v>
+      </c>
+      <c r="J58">
+        <f t="shared" si="4"/>
+        <v>50</v>
+      </c>
+      <c r="K58">
+        <f t="shared" si="5"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>276.94300007820129</v>
       </c>
@@ -7008,8 +8947,20 @@
       <c r="G59">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="1:7">
+      <c r="I59">
+        <f t="shared" si="3"/>
+        <v>46.6</v>
+      </c>
+      <c r="J59">
+        <f t="shared" si="4"/>
+        <v>50</v>
+      </c>
+      <c r="K59">
+        <f t="shared" si="5"/>
+        <v>87.1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>281.96700000762939</v>
       </c>
@@ -7031,8 +8982,20 @@
       <c r="G60">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="1:7">
+      <c r="I60">
+        <f t="shared" si="3"/>
+        <v>46.9</v>
+      </c>
+      <c r="J60">
+        <f t="shared" si="4"/>
+        <v>50</v>
+      </c>
+      <c r="K60">
+        <f t="shared" si="5"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>286.95900011062622</v>
       </c>
@@ -7054,8 +9017,20 @@
       <c r="G61">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="1:7">
+      <c r="I61">
+        <f t="shared" si="3"/>
+        <v>47.8</v>
+      </c>
+      <c r="J61">
+        <f t="shared" si="4"/>
+        <v>50</v>
+      </c>
+      <c r="K61">
+        <f t="shared" si="5"/>
+        <v>97.6</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>291.96600008010864</v>
       </c>
@@ -7077,8 +9052,20 @@
       <c r="G62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:7">
+      <c r="I62">
+        <f t="shared" si="3"/>
+        <v>47.7</v>
+      </c>
+      <c r="J62">
+        <f t="shared" si="4"/>
+        <v>50</v>
+      </c>
+      <c r="K62">
+        <f t="shared" si="5"/>
+        <v>91.9</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>297.22500014305115</v>
       </c>
@@ -7100,8 +9087,20 @@
       <c r="G63">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="1:7">
+      <c r="I63">
+        <f t="shared" si="3"/>
+        <v>47.9</v>
+      </c>
+      <c r="J63">
+        <f t="shared" si="4"/>
+        <v>50</v>
+      </c>
+      <c r="K63">
+        <f t="shared" si="5"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>302.24900007247925</v>
       </c>
@@ -7123,8 +9122,20 @@
       <c r="G64">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="1:7">
+      <c r="I64">
+        <f t="shared" si="3"/>
+        <v>48.4</v>
+      </c>
+      <c r="J64">
+        <f t="shared" si="4"/>
+        <v>50</v>
+      </c>
+      <c r="K64">
+        <f t="shared" si="5"/>
+        <v>99</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>307.0220000743866</v>
       </c>
@@ -7146,8 +9157,20 @@
       <c r="G65">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="1:7">
+      <c r="I65">
+        <f t="shared" si="3"/>
+        <v>48</v>
+      </c>
+      <c r="J65">
+        <f t="shared" si="4"/>
+        <v>50</v>
+      </c>
+      <c r="K65">
+        <f t="shared" si="5"/>
+        <v>96.7</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>312.04500007629395</v>
       </c>
@@ -7169,8 +9192,20 @@
       <c r="G66">
         <v>0</v>
       </c>
-    </row>
-    <row r="67" spans="1:7">
+      <c r="I66">
+        <f t="shared" si="3"/>
+        <v>48.8</v>
+      </c>
+      <c r="J66">
+        <f t="shared" si="4"/>
+        <v>50</v>
+      </c>
+      <c r="K66">
+        <f t="shared" si="5"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>317.06900000572205</v>
       </c>
@@ -7192,8 +9227,20 @@
       <c r="G67">
         <v>0</v>
       </c>
-    </row>
-    <row r="68" spans="1:7">
+      <c r="I67">
+        <f t="shared" si="3"/>
+        <v>48.8</v>
+      </c>
+      <c r="J67">
+        <f t="shared" si="4"/>
+        <v>50</v>
+      </c>
+      <c r="K67">
+        <f t="shared" si="5"/>
+        <v>94.4</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>322.17000007629395</v>
       </c>
@@ -7215,8 +9262,20 @@
       <c r="G68">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="1:7">
+      <c r="I68">
+        <f t="shared" ref="I68:I99" si="6">B84/10</f>
+        <v>49.5</v>
+      </c>
+      <c r="J68">
+        <f t="shared" ref="J68:J99" si="7">D84/10</f>
+        <v>50</v>
+      </c>
+      <c r="K68">
+        <f t="shared" ref="K68:K99" si="8">E84/10</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>327.05299997329712</v>
       </c>
@@ -7238,8 +9297,20 @@
       <c r="G69">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="1:7">
+      <c r="I69">
+        <f t="shared" si="6"/>
+        <v>50.9</v>
+      </c>
+      <c r="J69">
+        <f t="shared" si="7"/>
+        <v>50</v>
+      </c>
+      <c r="K69">
+        <f t="shared" si="8"/>
+        <v>91.2</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>332.09299993515015</v>
       </c>
@@ -7261,8 +9332,20 @@
       <c r="G70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:7">
+      <c r="I70">
+        <f t="shared" si="6"/>
+        <v>51.1</v>
+      </c>
+      <c r="J70">
+        <f t="shared" si="7"/>
+        <v>50</v>
+      </c>
+      <c r="K70">
+        <f t="shared" si="8"/>
+        <v>76.3</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>337.1010000705719</v>
       </c>
@@ -7284,8 +9367,20 @@
       <c r="G71">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="1:7">
+      <c r="I71">
+        <f t="shared" si="6"/>
+        <v>51.6</v>
+      </c>
+      <c r="J71">
+        <f t="shared" si="7"/>
+        <v>50</v>
+      </c>
+      <c r="K71">
+        <f t="shared" si="8"/>
+        <v>80.2</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>342.10899996757507</v>
       </c>
@@ -7307,8 +9402,20 @@
       <c r="G72">
         <v>0</v>
       </c>
-    </row>
-    <row r="73" spans="1:7">
+      <c r="I72">
+        <f t="shared" si="6"/>
+        <v>51.9</v>
+      </c>
+      <c r="J72">
+        <f t="shared" si="7"/>
+        <v>50</v>
+      </c>
+      <c r="K72">
+        <f t="shared" si="8"/>
+        <v>72.400000000000006</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>347.13199996948242</v>
       </c>
@@ -7330,8 +9437,20 @@
       <c r="G73">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="1:7">
+      <c r="I73">
+        <f t="shared" si="6"/>
+        <v>51.8</v>
+      </c>
+      <c r="J73">
+        <f t="shared" si="7"/>
+        <v>50</v>
+      </c>
+      <c r="K73">
+        <f t="shared" si="8"/>
+        <v>68.400000000000006</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>352.12400007247925</v>
       </c>
@@ -7353,8 +9472,20 @@
       <c r="G74">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="1:7">
+      <c r="I74">
+        <f t="shared" si="6"/>
+        <v>52.1</v>
+      </c>
+      <c r="J74">
+        <f t="shared" si="7"/>
+        <v>50</v>
+      </c>
+      <c r="K74">
+        <f t="shared" si="8"/>
+        <v>68.3</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>357.13199996948242</v>
       </c>
@@ -7376,8 +9507,20 @@
       <c r="G75">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="1:7">
+      <c r="I75">
+        <f t="shared" si="6"/>
+        <v>52.3</v>
+      </c>
+      <c r="J75">
+        <f t="shared" si="7"/>
+        <v>50</v>
+      </c>
+      <c r="K75">
+        <f t="shared" si="8"/>
+        <v>60.4</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>362.17199993133545</v>
       </c>
@@ -7399,8 +9542,20 @@
       <c r="G76">
         <v>0</v>
       </c>
-    </row>
-    <row r="77" spans="1:7">
+      <c r="I76">
+        <f t="shared" si="6"/>
+        <v>52.6</v>
+      </c>
+      <c r="J76">
+        <f t="shared" si="7"/>
+        <v>50</v>
+      </c>
+      <c r="K76">
+        <f t="shared" si="8"/>
+        <v>55.7</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>367.16400003433228</v>
       </c>
@@ -7422,8 +9577,20 @@
       <c r="G77">
         <v>0</v>
       </c>
-    </row>
-    <row r="78" spans="1:7">
+      <c r="I77">
+        <f t="shared" si="6"/>
+        <v>52.6</v>
+      </c>
+      <c r="J77">
+        <f t="shared" si="7"/>
+        <v>50</v>
+      </c>
+      <c r="K77">
+        <f t="shared" si="8"/>
+        <v>48.6</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>372.17199993133545</v>
       </c>
@@ -7445,8 +9612,20 @@
       <c r="G78">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="1:7">
+      <c r="I78">
+        <f t="shared" si="6"/>
+        <v>54.1</v>
+      </c>
+      <c r="J78">
+        <f t="shared" si="7"/>
+        <v>50</v>
+      </c>
+      <c r="K78">
+        <f t="shared" si="8"/>
+        <v>46</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>377.1949999332428</v>
       </c>
@@ -7468,8 +9647,20 @@
       <c r="G79">
         <v>0</v>
       </c>
-    </row>
-    <row r="80" spans="1:7">
+      <c r="I79">
+        <f t="shared" si="6"/>
+        <v>54</v>
+      </c>
+      <c r="J79">
+        <f t="shared" si="7"/>
+        <v>50</v>
+      </c>
+      <c r="K79">
+        <f t="shared" si="8"/>
+        <v>20.2</v>
+      </c>
+    </row>
+    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>382.20300006866455</v>
       </c>
@@ -7491,8 +9682,20 @@
       <c r="G80">
         <v>0</v>
       </c>
-    </row>
-    <row r="81" spans="1:7">
+      <c r="I80">
+        <f t="shared" si="6"/>
+        <v>52.4</v>
+      </c>
+      <c r="J80">
+        <f t="shared" si="7"/>
+        <v>50</v>
+      </c>
+      <c r="K80">
+        <f t="shared" si="8"/>
+        <v>23.4</v>
+      </c>
+    </row>
+    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>387.2260000705719</v>
       </c>
@@ -7514,8 +9717,20 @@
       <c r="G81">
         <v>0</v>
       </c>
-    </row>
-    <row r="82" spans="1:7">
+      <c r="I81">
+        <f t="shared" si="6"/>
+        <v>49.9</v>
+      </c>
+      <c r="J81">
+        <f t="shared" si="7"/>
+        <v>50</v>
+      </c>
+      <c r="K81">
+        <f t="shared" si="8"/>
+        <v>38.700000000000003</v>
+      </c>
+    </row>
+    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>392.23600006103516</v>
       </c>
@@ -7537,8 +9752,20 @@
       <c r="G82">
         <v>0</v>
       </c>
-    </row>
-    <row r="83" spans="1:7">
+      <c r="I82">
+        <f t="shared" si="6"/>
+        <v>49.5</v>
+      </c>
+      <c r="J82">
+        <f t="shared" si="7"/>
+        <v>50</v>
+      </c>
+      <c r="K82">
+        <f t="shared" si="8"/>
+        <v>60.7</v>
+      </c>
+    </row>
+    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>397.24300003051758</v>
       </c>
@@ -7560,8 +9787,20 @@
       <c r="G83">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="1:7">
+      <c r="I83">
+        <f t="shared" si="6"/>
+        <v>50.3</v>
+      </c>
+      <c r="J83">
+        <f t="shared" si="7"/>
+        <v>50</v>
+      </c>
+      <c r="K83">
+        <f t="shared" si="8"/>
+        <v>51.7</v>
+      </c>
+    </row>
+    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>402.25100016593933</v>
       </c>
@@ -7583,8 +9822,20 @@
       <c r="G84">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="1:7">
+      <c r="I84">
+        <f t="shared" si="6"/>
+        <v>51.1</v>
+      </c>
+      <c r="J84">
+        <f t="shared" si="7"/>
+        <v>50</v>
+      </c>
+      <c r="K84">
+        <f t="shared" si="8"/>
+        <v>38.799999999999997</v>
+      </c>
+    </row>
+    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>407.2739999294281</v>
       </c>
@@ -7606,8 +9857,20 @@
       <c r="G85">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="1:7">
+      <c r="I85">
+        <f t="shared" si="6"/>
+        <v>51.2</v>
+      </c>
+      <c r="J85">
+        <f t="shared" si="7"/>
+        <v>50</v>
+      </c>
+      <c r="K85">
+        <f t="shared" si="8"/>
+        <v>31.6</v>
+      </c>
+    </row>
+    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>412.29800009727478</v>
       </c>
@@ -7629,8 +9892,20 @@
       <c r="G86">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="1:7">
+      <c r="I86">
+        <f t="shared" si="6"/>
+        <v>50.3</v>
+      </c>
+      <c r="J86">
+        <f t="shared" si="7"/>
+        <v>50</v>
+      </c>
+      <c r="K86">
+        <f t="shared" si="8"/>
+        <v>33.1</v>
+      </c>
+    </row>
+    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>417.28999996185303</v>
       </c>
@@ -7652,8 +9927,20 @@
       <c r="G87">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="1:7">
+      <c r="I87">
+        <f t="shared" si="6"/>
+        <v>49</v>
+      </c>
+      <c r="J87">
+        <f t="shared" si="7"/>
+        <v>50</v>
+      </c>
+      <c r="K87">
+        <f t="shared" si="8"/>
+        <v>44.4</v>
+      </c>
+    </row>
+    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>422.31500005722046</v>
       </c>
@@ -7675,8 +9962,20 @@
       <c r="G88">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="1:7">
+      <c r="I88">
+        <f t="shared" si="6"/>
+        <v>48.6</v>
+      </c>
+      <c r="J88">
+        <f t="shared" si="7"/>
+        <v>50</v>
+      </c>
+      <c r="K88">
+        <f t="shared" si="8"/>
+        <v>57</v>
+      </c>
+    </row>
+    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>427.32299995422363</v>
       </c>
@@ -7698,8 +9997,20 @@
       <c r="G89">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="1:7">
+      <c r="I89">
+        <f t="shared" si="6"/>
+        <v>49</v>
+      </c>
+      <c r="J89">
+        <f t="shared" si="7"/>
+        <v>50</v>
+      </c>
+      <c r="K89">
+        <f t="shared" si="8"/>
+        <v>56.7</v>
+      </c>
+    </row>
+    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>432.31500005722046</v>
       </c>
@@ -7721,8 +10032,20 @@
       <c r="G90">
         <v>0</v>
       </c>
-    </row>
-    <row r="91" spans="1:7">
+      <c r="I90">
+        <f t="shared" si="6"/>
+        <v>50.2</v>
+      </c>
+      <c r="J90">
+        <f t="shared" si="7"/>
+        <v>50</v>
+      </c>
+      <c r="K90">
+        <f t="shared" si="8"/>
+        <v>51.1</v>
+      </c>
+    </row>
+    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>437.35400009155273</v>
       </c>
@@ -7744,8 +10067,20 @@
       <c r="G91">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="1:7">
+      <c r="I91">
+        <f t="shared" si="6"/>
+        <v>50.8</v>
+      </c>
+      <c r="J91">
+        <f t="shared" si="7"/>
+        <v>50</v>
+      </c>
+      <c r="K91">
+        <f t="shared" si="8"/>
+        <v>38.1</v>
+      </c>
+    </row>
+    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>442.34599995613098</v>
       </c>
@@ -7767,8 +10102,20 @@
       <c r="G92">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="1:7">
+      <c r="I92">
+        <f t="shared" si="6"/>
+        <v>50.2</v>
+      </c>
+      <c r="J92">
+        <f t="shared" si="7"/>
+        <v>50</v>
+      </c>
+      <c r="K92">
+        <f t="shared" si="8"/>
+        <v>36.299999999999997</v>
+      </c>
+    </row>
+    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>447.35300016403198</v>
       </c>
@@ -7790,8 +10137,20 @@
       <c r="G93">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="1:7">
+      <c r="I93">
+        <f t="shared" si="6"/>
+        <v>48.9</v>
+      </c>
+      <c r="J93">
+        <f t="shared" si="7"/>
+        <v>50</v>
+      </c>
+      <c r="K93">
+        <f t="shared" si="8"/>
+        <v>47.1</v>
+      </c>
+    </row>
+    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>452.36300015449524</v>
       </c>
@@ -7813,8 +10172,20 @@
       <c r="G94">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="1:7">
+      <c r="I94">
+        <f t="shared" si="6"/>
+        <v>50.1</v>
+      </c>
+      <c r="J94">
+        <f t="shared" si="7"/>
+        <v>50</v>
+      </c>
+      <c r="K94">
+        <f t="shared" si="8"/>
+        <v>61.7</v>
+      </c>
+    </row>
+    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>457.37100005149841</v>
       </c>
@@ -7836,8 +10207,20 @@
       <c r="G95">
         <v>0</v>
       </c>
-    </row>
-    <row r="96" spans="1:7">
+      <c r="I95">
+        <f t="shared" si="6"/>
+        <v>50.7</v>
+      </c>
+      <c r="J95">
+        <f t="shared" si="7"/>
+        <v>50</v>
+      </c>
+      <c r="K95">
+        <f t="shared" si="8"/>
+        <v>38.799999999999997</v>
+      </c>
+    </row>
+    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>462.37800002098083</v>
       </c>
@@ -7859,8 +10242,20 @@
       <c r="G96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:7">
+      <c r="I96">
+        <f t="shared" si="6"/>
+        <v>50.8</v>
+      </c>
+      <c r="J96">
+        <f t="shared" si="7"/>
+        <v>50</v>
+      </c>
+      <c r="K96">
+        <f t="shared" si="8"/>
+        <v>37.200000000000003</v>
+      </c>
+    </row>
+    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>467.40199995040894</v>
       </c>
@@ -7882,8 +10277,20 @@
       <c r="G97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:7">
+      <c r="I97">
+        <f t="shared" si="6"/>
+        <v>50.3</v>
+      </c>
+      <c r="J97">
+        <f t="shared" si="7"/>
+        <v>50</v>
+      </c>
+      <c r="K97">
+        <f t="shared" si="8"/>
+        <v>38.1</v>
+      </c>
+    </row>
+    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>472.40900015830994</v>
       </c>
@@ -7905,8 +10312,20 @@
       <c r="G98">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="1:7">
+      <c r="I98">
+        <f t="shared" si="6"/>
+        <v>49.9</v>
+      </c>
+      <c r="J98">
+        <f t="shared" si="7"/>
+        <v>50</v>
+      </c>
+      <c r="K98">
+        <f t="shared" si="8"/>
+        <v>44.4</v>
+      </c>
+    </row>
+    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>477.43200016021729</v>
       </c>
@@ -7928,8 +10347,20 @@
       <c r="G99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:7">
+      <c r="I99">
+        <f t="shared" si="6"/>
+        <v>50.6</v>
+      </c>
+      <c r="J99">
+        <f t="shared" si="7"/>
+        <v>50</v>
+      </c>
+      <c r="K99">
+        <f t="shared" si="8"/>
+        <v>46.6</v>
+      </c>
+    </row>
+    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>482.42600011825562</v>
       </c>
@@ -7951,8 +10382,20 @@
       <c r="G100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:7">
+      <c r="I100">
+        <f t="shared" ref="I100:I131" si="9">B116/10</f>
+        <v>51</v>
+      </c>
+      <c r="J100">
+        <f t="shared" ref="J100:J131" si="10">D116/10</f>
+        <v>50</v>
+      </c>
+      <c r="K100">
+        <f t="shared" ref="K100:K131" si="11">E116/10</f>
+        <v>34.5</v>
+      </c>
+    </row>
+    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>487.45000004768372</v>
       </c>
@@ -7974,8 +10417,20 @@
       <c r="G101">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="1:7">
+      <c r="I101">
+        <f t="shared" si="9"/>
+        <v>50.1</v>
+      </c>
+      <c r="J101">
+        <f t="shared" si="10"/>
+        <v>50</v>
+      </c>
+      <c r="K101">
+        <f t="shared" si="11"/>
+        <v>31.9</v>
+      </c>
+    </row>
+    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>492.45700001716614</v>
       </c>
@@ -7997,8 +10452,20 @@
       <c r="G102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:7">
+      <c r="I102">
+        <f t="shared" si="9"/>
+        <v>50.4</v>
+      </c>
+      <c r="J102">
+        <f t="shared" si="10"/>
+        <v>50</v>
+      </c>
+      <c r="K102">
+        <f t="shared" si="11"/>
+        <v>45.4</v>
+      </c>
+    </row>
+    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A103">
         <v>497.44900012016296</v>
       </c>
@@ -8020,8 +10487,20 @@
       <c r="G103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:7">
+      <c r="I103">
+        <f t="shared" si="9"/>
+        <v>49.2</v>
+      </c>
+      <c r="J103">
+        <f t="shared" si="10"/>
+        <v>50</v>
+      </c>
+      <c r="K103">
+        <f t="shared" si="11"/>
+        <v>35.6</v>
+      </c>
+    </row>
+    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A104">
         <v>502.50399994850159</v>
       </c>
@@ -8043,8 +10522,20 @@
       <c r="G104">
         <v>0</v>
       </c>
-    </row>
-    <row r="105" spans="1:7">
+      <c r="I104">
+        <f t="shared" si="9"/>
+        <v>48.9</v>
+      </c>
+      <c r="J104">
+        <f t="shared" si="10"/>
+        <v>50</v>
+      </c>
+      <c r="K104">
+        <f t="shared" si="11"/>
+        <v>53.8</v>
+      </c>
+    </row>
+    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A105">
         <v>507.48000001907349</v>
       </c>
@@ -8066,8 +10557,20 @@
       <c r="G105">
         <v>0</v>
       </c>
-    </row>
-    <row r="106" spans="1:7">
+      <c r="I105">
+        <f t="shared" si="9"/>
+        <v>49.2</v>
+      </c>
+      <c r="J105">
+        <f t="shared" si="10"/>
+        <v>50</v>
+      </c>
+      <c r="K105">
+        <f t="shared" si="11"/>
+        <v>52.3</v>
+      </c>
+    </row>
+    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A106">
         <v>512.50500011444092</v>
       </c>
@@ -8089,8 +10592,20 @@
       <c r="G106">
         <v>0</v>
       </c>
-    </row>
-    <row r="107" spans="1:7">
+      <c r="I106">
+        <f t="shared" si="9"/>
+        <v>48.7</v>
+      </c>
+      <c r="J106">
+        <f t="shared" si="10"/>
+        <v>50</v>
+      </c>
+      <c r="K106">
+        <f t="shared" si="11"/>
+        <v>48.1</v>
+      </c>
+    </row>
+    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A107">
         <v>517.52800011634827</v>
       </c>
@@ -8112,8 +10627,20 @@
       <c r="G107">
         <v>0</v>
       </c>
-    </row>
-    <row r="108" spans="1:7">
+      <c r="I107">
+        <f t="shared" si="9"/>
+        <v>49.9</v>
+      </c>
+      <c r="J107">
+        <f t="shared" si="10"/>
+        <v>50</v>
+      </c>
+      <c r="K107">
+        <f t="shared" si="11"/>
+        <v>58.4</v>
+      </c>
+    </row>
+    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A108">
         <v>522.51999998092651</v>
       </c>
@@ -8135,8 +10662,20 @@
       <c r="G108">
         <v>0</v>
       </c>
-    </row>
-    <row r="109" spans="1:7">
+      <c r="I108">
+        <f t="shared" si="9"/>
+        <v>51.2</v>
+      </c>
+      <c r="J108">
+        <f t="shared" si="10"/>
+        <v>50</v>
+      </c>
+      <c r="K108">
+        <f t="shared" si="11"/>
+        <v>40.6</v>
+      </c>
+    </row>
+    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A109">
         <v>527.54400014877319</v>
       </c>
@@ -8158,8 +10697,20 @@
       <c r="G109">
         <v>0</v>
       </c>
-    </row>
-    <row r="110" spans="1:7">
+      <c r="I109">
+        <f t="shared" si="9"/>
+        <v>50.8</v>
+      </c>
+      <c r="J109">
+        <f t="shared" si="10"/>
+        <v>50</v>
+      </c>
+      <c r="K109">
+        <f t="shared" si="11"/>
+        <v>29.4</v>
+      </c>
+    </row>
+    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A110">
         <v>532.55100011825562</v>
       </c>
@@ -8181,8 +10732,20 @@
       <c r="G110">
         <v>0</v>
       </c>
-    </row>
-    <row r="111" spans="1:7">
+      <c r="I110">
+        <f t="shared" si="9"/>
+        <v>49</v>
+      </c>
+      <c r="J110">
+        <f t="shared" si="10"/>
+        <v>50</v>
+      </c>
+      <c r="K110">
+        <f t="shared" si="11"/>
+        <v>40.700000000000003</v>
+      </c>
+    </row>
+    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A111">
         <v>537.55900001525879</v>
       </c>
@@ -8204,8 +10767,20 @@
       <c r="G111">
         <v>0</v>
       </c>
-    </row>
-    <row r="112" spans="1:7">
+      <c r="I111">
+        <f t="shared" si="9"/>
+        <v>49.3</v>
+      </c>
+      <c r="J111">
+        <f t="shared" si="10"/>
+        <v>50</v>
+      </c>
+      <c r="K111">
+        <f t="shared" si="11"/>
+        <v>62.6</v>
+      </c>
+    </row>
+    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A112">
         <v>542.60000014305115</v>
       </c>
@@ -8227,8 +10802,20 @@
       <c r="G112">
         <v>0</v>
       </c>
-    </row>
-    <row r="113" spans="1:7">
+      <c r="I112">
+        <f t="shared" si="9"/>
+        <v>48.7</v>
+      </c>
+      <c r="J112">
+        <f t="shared" si="10"/>
+        <v>50</v>
+      </c>
+      <c r="K112">
+        <f t="shared" si="11"/>
+        <v>49.4</v>
+      </c>
+    </row>
+    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A113">
         <v>547.59200000762939</v>
       </c>
@@ -8250,8 +10837,20 @@
       <c r="G113">
         <v>0</v>
       </c>
-    </row>
-    <row r="114" spans="1:7">
+      <c r="I113">
+        <f t="shared" si="9"/>
+        <v>49.1</v>
+      </c>
+      <c r="J113">
+        <f t="shared" si="10"/>
+        <v>50</v>
+      </c>
+      <c r="K113">
+        <f t="shared" si="11"/>
+        <v>60.9</v>
+      </c>
+    </row>
+    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A114">
         <v>552.59899997711182</v>
       </c>
@@ -8273,8 +10872,20 @@
       <c r="G114">
         <v>0</v>
       </c>
-    </row>
-    <row r="115" spans="1:7">
+      <c r="I114">
+        <f t="shared" si="9"/>
+        <v>50.7</v>
+      </c>
+      <c r="J114">
+        <f t="shared" si="10"/>
+        <v>50</v>
+      </c>
+      <c r="K114">
+        <f t="shared" si="11"/>
+        <v>53.9</v>
+      </c>
+    </row>
+    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A115">
         <v>557.62199997901917</v>
       </c>
@@ -8296,8 +10907,20 @@
       <c r="G115">
         <v>0</v>
       </c>
-    </row>
-    <row r="116" spans="1:7">
+      <c r="I115">
+        <f t="shared" si="9"/>
+        <v>50.9</v>
+      </c>
+      <c r="J115">
+        <f t="shared" si="10"/>
+        <v>50</v>
+      </c>
+      <c r="K115">
+        <f t="shared" si="11"/>
+        <v>35</v>
+      </c>
+    </row>
+    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A116">
         <v>562.63000011444092</v>
       </c>
@@ -8319,8 +10942,20 @@
       <c r="G116">
         <v>0</v>
       </c>
-    </row>
-    <row r="117" spans="1:7">
+      <c r="I116">
+        <f t="shared" si="9"/>
+        <v>51.1</v>
+      </c>
+      <c r="J116">
+        <f t="shared" si="10"/>
+        <v>50</v>
+      </c>
+      <c r="K116">
+        <f t="shared" si="11"/>
+        <v>40.5</v>
+      </c>
+    </row>
+    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A117">
         <v>567.65300011634827</v>
       </c>
@@ -8342,8 +10977,20 @@
       <c r="G117">
         <v>0</v>
       </c>
-    </row>
-    <row r="118" spans="1:7">
+      <c r="I117">
+        <f t="shared" si="9"/>
+        <v>51</v>
+      </c>
+      <c r="J117">
+        <f t="shared" si="10"/>
+        <v>50</v>
+      </c>
+      <c r="K117">
+        <f t="shared" si="11"/>
+        <v>37.299999999999997</v>
+      </c>
+    </row>
+    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A118">
         <v>572.6470000743866</v>
       </c>
@@ -8365,8 +11012,20 @@
       <c r="G118">
         <v>0</v>
       </c>
-    </row>
-    <row r="119" spans="1:7">
+      <c r="I118">
+        <f t="shared" si="9"/>
+        <v>50.9</v>
+      </c>
+      <c r="J118">
+        <f t="shared" si="10"/>
+        <v>50</v>
+      </c>
+      <c r="K118">
+        <f t="shared" si="11"/>
+        <v>38</v>
+      </c>
+    </row>
+    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A119">
         <v>577.65499997138977</v>
       </c>
@@ -8388,8 +11047,20 @@
       <c r="G119">
         <v>0</v>
       </c>
-    </row>
-    <row r="120" spans="1:7">
+      <c r="I119">
+        <f t="shared" si="9"/>
+        <v>51</v>
+      </c>
+      <c r="J119">
+        <f t="shared" si="10"/>
+        <v>50</v>
+      </c>
+      <c r="K119">
+        <f t="shared" si="11"/>
+        <v>37.1</v>
+      </c>
+    </row>
+    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A120">
         <v>582.66300010681152</v>
       </c>
@@ -8411,8 +11082,20 @@
       <c r="G120">
         <v>0</v>
       </c>
-    </row>
-    <row r="121" spans="1:7">
+      <c r="I120">
+        <f t="shared" si="9"/>
+        <v>49.8</v>
+      </c>
+      <c r="J120">
+        <f t="shared" si="10"/>
+        <v>50</v>
+      </c>
+      <c r="K120">
+        <f t="shared" si="11"/>
+        <v>33.5</v>
+      </c>
+    </row>
+    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A121">
         <v>587.67000007629395</v>
       </c>
@@ -8434,8 +11117,20 @@
       <c r="G121">
         <v>0</v>
       </c>
-    </row>
-    <row r="122" spans="1:7">
+      <c r="I121">
+        <f t="shared" si="9"/>
+        <v>48.6</v>
+      </c>
+      <c r="J121">
+        <f t="shared" si="10"/>
+        <v>50</v>
+      </c>
+      <c r="K121">
+        <f t="shared" si="11"/>
+        <v>49.5</v>
+      </c>
+    </row>
+    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A122">
         <v>592.70900011062622</v>
       </c>
@@ -8457,8 +11152,20 @@
       <c r="G122">
         <v>0</v>
       </c>
-    </row>
-    <row r="123" spans="1:7" s="1" customFormat="1">
+      <c r="I122">
+        <f t="shared" si="9"/>
+        <v>49.4</v>
+      </c>
+      <c r="J122">
+        <f t="shared" si="10"/>
+        <v>50</v>
+      </c>
+      <c r="K122">
+        <f t="shared" si="11"/>
+        <v>59.8</v>
+      </c>
+    </row>
+    <row r="123" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A123" s="1">
         <v>597.70099997520447</v>
       </c>
@@ -8480,8 +11187,20 @@
       <c r="G123" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="124" spans="1:7">
+      <c r="I123">
+        <f t="shared" si="9"/>
+        <v>49.3</v>
+      </c>
+      <c r="J123">
+        <f t="shared" si="10"/>
+        <v>50</v>
+      </c>
+      <c r="K123">
+        <f t="shared" si="11"/>
+        <v>43.7</v>
+      </c>
+    </row>
+    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A124">
         <v>602.7260000705719</v>
       </c>
@@ -8503,8 +11222,20 @@
       <c r="G124">
         <v>0</v>
       </c>
-    </row>
-    <row r="125" spans="1:7">
+      <c r="I124">
+        <f t="shared" si="9"/>
+        <v>50.2</v>
+      </c>
+      <c r="J124">
+        <f t="shared" si="10"/>
+        <v>50</v>
+      </c>
+      <c r="K124">
+        <f t="shared" si="11"/>
+        <v>50.9</v>
+      </c>
+    </row>
+    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A125">
         <v>607.76500010490417</v>
       </c>
@@ -8526,8 +11257,20 @@
       <c r="G125">
         <v>0</v>
       </c>
-    </row>
-    <row r="126" spans="1:7">
+      <c r="I125">
+        <f t="shared" si="9"/>
+        <v>50.9</v>
+      </c>
+      <c r="J125">
+        <f t="shared" si="10"/>
+        <v>50</v>
+      </c>
+      <c r="K125">
+        <f t="shared" si="11"/>
+        <v>38.700000000000003</v>
+      </c>
+    </row>
+    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A126">
         <v>612.75699996948242</v>
       </c>
@@ -8549,8 +11292,20 @@
       <c r="G126">
         <v>0</v>
       </c>
-    </row>
-    <row r="127" spans="1:7">
+      <c r="I126">
+        <f t="shared" si="9"/>
+        <v>50.8</v>
+      </c>
+      <c r="J126">
+        <f t="shared" si="10"/>
+        <v>50</v>
+      </c>
+      <c r="K126">
+        <f t="shared" si="11"/>
+        <v>33.700000000000003</v>
+      </c>
+    </row>
+    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A127">
         <v>617.77999997138977</v>
       </c>
@@ -8572,8 +11327,20 @@
       <c r="G127">
         <v>0</v>
       </c>
-    </row>
-    <row r="128" spans="1:7">
+      <c r="I127">
+        <f t="shared" si="9"/>
+        <v>49.2</v>
+      </c>
+      <c r="J127">
+        <f t="shared" si="10"/>
+        <v>50</v>
+      </c>
+      <c r="K127">
+        <f t="shared" si="11"/>
+        <v>37.799999999999997</v>
+      </c>
+    </row>
+    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A128">
         <v>622.7720000743866</v>
       </c>
@@ -8595,8 +11362,20 @@
       <c r="G128">
         <v>0</v>
       </c>
-    </row>
-    <row r="129" spans="1:12">
+      <c r="I128">
+        <f t="shared" si="9"/>
+        <v>48.9</v>
+      </c>
+      <c r="J128">
+        <f t="shared" si="10"/>
+        <v>50</v>
+      </c>
+      <c r="K128">
+        <f t="shared" si="11"/>
+        <v>58.5</v>
+      </c>
+    </row>
+    <row r="129" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A129">
         <v>627.77999997138977</v>
       </c>
@@ -8618,14 +11397,26 @@
       <c r="G129">
         <v>0</v>
       </c>
+      <c r="I129">
+        <f t="shared" si="9"/>
+        <v>49.1</v>
+      </c>
+      <c r="J129">
+        <f t="shared" si="10"/>
+        <v>39</v>
+      </c>
       <c r="K129">
+        <f t="shared" si="11"/>
+        <v>54.7</v>
+      </c>
+      <c r="L129">
         <v>300</v>
       </c>
-      <c r="L129">
+      <c r="M129">
         <v>226</v>
       </c>
     </row>
-    <row r="130" spans="1:12">
+    <row r="130" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A130">
         <v>632.82100009918213</v>
       </c>
@@ -8647,14 +11438,26 @@
       <c r="G130">
         <v>0</v>
       </c>
+      <c r="I130">
+        <f t="shared" si="9"/>
+        <v>50</v>
+      </c>
+      <c r="J130">
+        <f t="shared" si="10"/>
+        <v>30</v>
+      </c>
       <c r="K130">
-        <v>400</v>
+        <f t="shared" si="11"/>
+        <v>54.7</v>
       </c>
       <c r="L130">
+        <v>400</v>
+      </c>
+      <c r="M130">
         <v>231</v>
       </c>
     </row>
-    <row r="131" spans="1:12">
+    <row r="131" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A131">
         <v>637.81299996376038</v>
       </c>
@@ -8676,14 +11479,26 @@
       <c r="G131">
         <v>0</v>
       </c>
+      <c r="I131">
+        <f t="shared" si="9"/>
+        <v>50.7</v>
+      </c>
+      <c r="J131">
+        <f t="shared" si="10"/>
+        <v>30</v>
+      </c>
       <c r="K131">
+        <f t="shared" si="11"/>
+        <v>54.7</v>
+      </c>
+      <c r="L131">
         <v>500</v>
       </c>
-      <c r="L131">
+      <c r="M131">
         <v>237</v>
       </c>
     </row>
-    <row r="132" spans="1:12">
+    <row r="132" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A132">
         <v>643.40199995040894</v>
       </c>
@@ -8705,8 +11520,20 @@
       <c r="G132">
         <v>0</v>
       </c>
-    </row>
-    <row r="133" spans="1:12">
+      <c r="I132">
+        <f t="shared" ref="I132:I163" si="12">B148/10</f>
+        <v>50.8</v>
+      </c>
+      <c r="J132">
+        <f t="shared" ref="J132:J163" si="13">D148/10</f>
+        <v>30</v>
+      </c>
+      <c r="K132">
+        <f t="shared" ref="K132:K163" si="14">E148/10</f>
+        <v>54.7</v>
+      </c>
+    </row>
+    <row r="133" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A133">
         <v>647.83299994468689</v>
       </c>
@@ -8728,8 +11555,20 @@
       <c r="G133">
         <v>0</v>
       </c>
-    </row>
-    <row r="134" spans="1:12">
+      <c r="I133">
+        <f t="shared" si="12"/>
+        <v>51.4</v>
+      </c>
+      <c r="J133">
+        <f t="shared" si="13"/>
+        <v>30</v>
+      </c>
+      <c r="K133">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="134" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A134">
         <v>652.85599994659424</v>
       </c>
@@ -8751,8 +11590,20 @@
       <c r="G134">
         <v>0</v>
       </c>
-    </row>
-    <row r="135" spans="1:12">
+      <c r="I134">
+        <f t="shared" si="12"/>
+        <v>48.4</v>
+      </c>
+      <c r="J134">
+        <f t="shared" si="13"/>
+        <v>30</v>
+      </c>
+      <c r="K134">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="135" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A135">
         <v>657.87899994850159</v>
       </c>
@@ -8774,8 +11625,20 @@
       <c r="G135">
         <v>0</v>
       </c>
-    </row>
-    <row r="136" spans="1:12" s="1" customFormat="1">
+      <c r="I135">
+        <f t="shared" si="12"/>
+        <v>45.2</v>
+      </c>
+      <c r="J135">
+        <f t="shared" si="13"/>
+        <v>30</v>
+      </c>
+      <c r="K135">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="136" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A136" s="1">
         <v>662.8730001449585</v>
       </c>
@@ -8797,8 +11660,20 @@
       <c r="G136" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="137" spans="1:12">
+      <c r="I136">
+        <f t="shared" si="12"/>
+        <v>41.9</v>
+      </c>
+      <c r="J136">
+        <f t="shared" si="13"/>
+        <v>30</v>
+      </c>
+      <c r="K136">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="137" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A137">
         <v>667.88100004196167</v>
       </c>
@@ -8820,8 +11695,20 @@
       <c r="G137">
         <v>0</v>
       </c>
-    </row>
-    <row r="138" spans="1:12">
+      <c r="I137">
+        <f t="shared" si="12"/>
+        <v>38.6</v>
+      </c>
+      <c r="J137">
+        <f t="shared" si="13"/>
+        <v>30</v>
+      </c>
+      <c r="K137">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="138" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A138">
         <v>672.90400004386902</v>
       </c>
@@ -8843,8 +11730,20 @@
       <c r="G138">
         <v>0</v>
       </c>
-    </row>
-    <row r="139" spans="1:12">
+      <c r="I138">
+        <f t="shared" si="12"/>
+        <v>34.700000000000003</v>
+      </c>
+      <c r="J138">
+        <f t="shared" si="13"/>
+        <v>30</v>
+      </c>
+      <c r="K138">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="139" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A139">
         <v>677.89600014686584</v>
       </c>
@@ -8866,8 +11765,20 @@
       <c r="G139">
         <v>0</v>
       </c>
-    </row>
-    <row r="140" spans="1:12">
+      <c r="I139">
+        <f t="shared" si="12"/>
+        <v>31.5</v>
+      </c>
+      <c r="J139">
+        <f t="shared" si="13"/>
+        <v>30</v>
+      </c>
+      <c r="K139">
+        <f t="shared" si="14"/>
+        <v>29.9</v>
+      </c>
+    </row>
+    <row r="140" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A140">
         <v>682.93499994277954</v>
       </c>
@@ -8889,8 +11800,20 @@
       <c r="G140">
         <v>0</v>
       </c>
-    </row>
-    <row r="141" spans="1:12">
+      <c r="I140">
+        <f t="shared" si="12"/>
+        <v>30.9</v>
+      </c>
+      <c r="J140">
+        <f t="shared" si="13"/>
+        <v>30</v>
+      </c>
+      <c r="K140">
+        <f t="shared" si="14"/>
+        <v>44.2</v>
+      </c>
+    </row>
+    <row r="141" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A141">
         <v>687.92700004577637</v>
       </c>
@@ -8912,8 +11835,20 @@
       <c r="G141">
         <v>0</v>
       </c>
-    </row>
-    <row r="142" spans="1:12">
+      <c r="I141">
+        <f t="shared" si="12"/>
+        <v>30.2</v>
+      </c>
+      <c r="J141">
+        <f t="shared" si="13"/>
+        <v>30</v>
+      </c>
+      <c r="K141">
+        <f t="shared" si="14"/>
+        <v>31.1</v>
+      </c>
+    </row>
+    <row r="142" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A142">
         <v>692.93799996376038</v>
       </c>
@@ -8935,8 +11870,20 @@
       <c r="G142">
         <v>0</v>
       </c>
-    </row>
-    <row r="143" spans="1:12">
+      <c r="I142">
+        <f t="shared" si="12"/>
+        <v>29.6</v>
+      </c>
+      <c r="J142">
+        <f t="shared" si="13"/>
+        <v>30</v>
+      </c>
+      <c r="K142">
+        <f t="shared" si="14"/>
+        <v>36</v>
+      </c>
+    </row>
+    <row r="143" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A143">
         <v>697.9760000705719</v>
       </c>
@@ -8958,8 +11905,20 @@
       <c r="G143">
         <v>0</v>
       </c>
-    </row>
-    <row r="144" spans="1:12">
+      <c r="I143">
+        <f t="shared" si="12"/>
+        <v>29.2</v>
+      </c>
+      <c r="J143">
+        <f t="shared" si="13"/>
+        <v>30</v>
+      </c>
+      <c r="K143">
+        <f t="shared" si="14"/>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="144" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A144">
         <v>702.96799993515015</v>
       </c>
@@ -8981,8 +11940,20 @@
       <c r="G144">
         <v>0</v>
       </c>
-    </row>
-    <row r="145" spans="1:7">
+      <c r="I144">
+        <f t="shared" si="12"/>
+        <v>30.3</v>
+      </c>
+      <c r="J144">
+        <f t="shared" si="13"/>
+        <v>30</v>
+      </c>
+      <c r="K144">
+        <f t="shared" si="14"/>
+        <v>42.8</v>
+      </c>
+    </row>
+    <row r="145" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A145">
         <v>707.9760000705719</v>
       </c>
@@ -9004,8 +11975,20 @@
       <c r="G145">
         <v>0</v>
       </c>
-    </row>
-    <row r="146" spans="1:7">
+      <c r="I145">
+        <f t="shared" si="12"/>
+        <v>30.2</v>
+      </c>
+      <c r="J145">
+        <f t="shared" si="13"/>
+        <v>30</v>
+      </c>
+      <c r="K145">
+        <f t="shared" si="14"/>
+        <v>26.2</v>
+      </c>
+    </row>
+    <row r="146" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A146">
         <v>712.99900007247925</v>
       </c>
@@ -9027,8 +12010,20 @@
       <c r="G146">
         <v>0</v>
       </c>
-    </row>
-    <row r="147" spans="1:7">
+      <c r="I146">
+        <f t="shared" si="12"/>
+        <v>29</v>
+      </c>
+      <c r="J146">
+        <f t="shared" si="13"/>
+        <v>30</v>
+      </c>
+      <c r="K146">
+        <f t="shared" si="14"/>
+        <v>33.6</v>
+      </c>
+    </row>
+    <row r="147" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A147">
         <v>718.00699996948242</v>
       </c>
@@ -9050,8 +12045,20 @@
       <c r="G147">
         <v>0</v>
       </c>
-    </row>
-    <row r="148" spans="1:7">
+      <c r="I147">
+        <f t="shared" si="12"/>
+        <v>28.9</v>
+      </c>
+      <c r="J147">
+        <f t="shared" si="13"/>
+        <v>30</v>
+      </c>
+      <c r="K147">
+        <f t="shared" si="14"/>
+        <v>49.7</v>
+      </c>
+    </row>
+    <row r="148" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A148">
         <v>723.0460000038147</v>
       </c>
@@ -9073,8 +12080,20 @@
       <c r="G148">
         <v>0</v>
       </c>
-    </row>
-    <row r="149" spans="1:7">
+      <c r="I148">
+        <f t="shared" si="12"/>
+        <v>29</v>
+      </c>
+      <c r="J148">
+        <f t="shared" si="13"/>
+        <v>30</v>
+      </c>
+      <c r="K148">
+        <f t="shared" si="14"/>
+        <v>45.8</v>
+      </c>
+    </row>
+    <row r="149" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A149">
         <v>728.00600004196167</v>
       </c>
@@ -9096,8 +12115,20 @@
       <c r="G149">
         <v>0</v>
       </c>
-    </row>
-    <row r="150" spans="1:7">
+      <c r="I149">
+        <f t="shared" si="12"/>
+        <v>29.7</v>
+      </c>
+      <c r="J149">
+        <f t="shared" si="13"/>
+        <v>30</v>
+      </c>
+      <c r="K149">
+        <f t="shared" si="14"/>
+        <v>45.6</v>
+      </c>
+    </row>
+    <row r="150" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A150">
         <v>733.02999997138977</v>
       </c>
@@ -9119,8 +12150,20 @@
       <c r="G150">
         <v>0</v>
       </c>
-    </row>
-    <row r="151" spans="1:7">
+      <c r="I150">
+        <f t="shared" si="12"/>
+        <v>30.5</v>
+      </c>
+      <c r="J150">
+        <f t="shared" si="13"/>
+        <v>30</v>
+      </c>
+      <c r="K150">
+        <f t="shared" si="14"/>
+        <v>38</v>
+      </c>
+    </row>
+    <row r="151" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A151">
         <v>738.05299997329712</v>
       </c>
@@ -9142,8 +12185,20 @@
       <c r="G151">
         <v>0</v>
       </c>
-    </row>
-    <row r="152" spans="1:7">
+      <c r="I151">
+        <f t="shared" si="12"/>
+        <v>30.9</v>
+      </c>
+      <c r="J151">
+        <f t="shared" si="13"/>
+        <v>30</v>
+      </c>
+      <c r="K151">
+        <f t="shared" si="14"/>
+        <v>31.3</v>
+      </c>
+    </row>
+    <row r="152" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A152">
         <v>743.05999994277954</v>
       </c>
@@ -9165,8 +12220,20 @@
       <c r="G152">
         <v>0</v>
       </c>
-    </row>
-    <row r="153" spans="1:7">
+      <c r="I152">
+        <f t="shared" si="12"/>
+        <v>29.5</v>
+      </c>
+      <c r="J152">
+        <f t="shared" si="13"/>
+        <v>30</v>
+      </c>
+      <c r="K152">
+        <f t="shared" si="14"/>
+        <v>29.5</v>
+      </c>
+    </row>
+    <row r="153" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A153">
         <v>748.09899997711182</v>
       </c>
@@ -9188,8 +12255,20 @@
       <c r="G153">
         <v>0</v>
       </c>
-    </row>
-    <row r="154" spans="1:7">
+      <c r="I153">
+        <f t="shared" si="12"/>
+        <v>29.1</v>
+      </c>
+      <c r="J153">
+        <f t="shared" si="13"/>
+        <v>30</v>
+      </c>
+      <c r="K153">
+        <f t="shared" si="14"/>
+        <v>50.2</v>
+      </c>
+    </row>
+    <row r="154" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A154">
         <v>753.09100008010864</v>
       </c>
@@ -9211,8 +12290,20 @@
       <c r="G154">
         <v>0</v>
       </c>
-    </row>
-    <row r="155" spans="1:7">
+      <c r="I154">
+        <f t="shared" si="12"/>
+        <v>29.2</v>
+      </c>
+      <c r="J154">
+        <f t="shared" si="13"/>
+        <v>30</v>
+      </c>
+      <c r="K154">
+        <f t="shared" si="14"/>
+        <v>48.5</v>
+      </c>
+    </row>
+    <row r="155" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A155">
         <v>758.1010000705719</v>
       </c>
@@ -9234,8 +12325,20 @@
       <c r="G155">
         <v>0</v>
       </c>
-    </row>
-    <row r="156" spans="1:7">
+      <c r="I155">
+        <f t="shared" si="12"/>
+        <v>29.3</v>
+      </c>
+      <c r="J155">
+        <f t="shared" si="13"/>
+        <v>30</v>
+      </c>
+      <c r="K155">
+        <f t="shared" si="14"/>
+        <v>46.2</v>
+      </c>
+    </row>
+    <row r="156" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A156">
         <v>763.10800004005432</v>
       </c>
@@ -9257,8 +12360,20 @@
       <c r="G156">
         <v>0</v>
       </c>
-    </row>
-    <row r="157" spans="1:7">
+      <c r="I156">
+        <f t="shared" si="12"/>
+        <v>29.3</v>
+      </c>
+      <c r="J156">
+        <f t="shared" si="13"/>
+        <v>30</v>
+      </c>
+      <c r="K156">
+        <f t="shared" si="14"/>
+        <v>46.8</v>
+      </c>
+    </row>
+    <row r="157" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A157">
         <v>768.13199996948242</v>
       </c>
@@ -9280,8 +12395,20 @@
       <c r="G157">
         <v>0</v>
       </c>
-    </row>
-    <row r="158" spans="1:7">
+      <c r="I157">
+        <f t="shared" si="12"/>
+        <v>30.5</v>
+      </c>
+      <c r="J157">
+        <f t="shared" si="13"/>
+        <v>30</v>
+      </c>
+      <c r="K157">
+        <f t="shared" si="14"/>
+        <v>48.6</v>
+      </c>
+    </row>
+    <row r="158" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A158">
         <v>773.17000007629395</v>
       </c>
@@ -9303,8 +12430,20 @@
       <c r="G158">
         <v>0</v>
       </c>
-    </row>
-    <row r="159" spans="1:7">
+      <c r="I158">
+        <f t="shared" si="12"/>
+        <v>29.6</v>
+      </c>
+      <c r="J158">
+        <f t="shared" si="13"/>
+        <v>30</v>
+      </c>
+      <c r="K158">
+        <f t="shared" si="14"/>
+        <v>32.700000000000003</v>
+      </c>
+    </row>
+    <row r="159" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A159">
         <v>778.1470000743866</v>
       </c>
@@ -9326,8 +12465,20 @@
       <c r="G159">
         <v>0</v>
       </c>
-    </row>
-    <row r="160" spans="1:7">
+      <c r="I159">
+        <f t="shared" si="12"/>
+        <v>30.5</v>
+      </c>
+      <c r="J159">
+        <f t="shared" si="13"/>
+        <v>30</v>
+      </c>
+      <c r="K159">
+        <f t="shared" si="14"/>
+        <v>51.8</v>
+      </c>
+    </row>
+    <row r="160" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A160">
         <v>783.17000007629395</v>
       </c>
@@ -9349,8 +12500,20 @@
       <c r="G160">
         <v>0</v>
       </c>
-    </row>
-    <row r="161" spans="1:7">
+      <c r="I160">
+        <f t="shared" si="12"/>
+        <v>30.2</v>
+      </c>
+      <c r="J160">
+        <f t="shared" si="13"/>
+        <v>30</v>
+      </c>
+      <c r="K160">
+        <f t="shared" si="14"/>
+        <v>34.299999999999997</v>
+      </c>
+    </row>
+    <row r="161" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A161">
         <v>788.1800000667572</v>
       </c>
@@ -9372,8 +12535,20 @@
       <c r="G161">
         <v>0</v>
       </c>
-    </row>
-    <row r="162" spans="1:7">
+      <c r="I161">
+        <f t="shared" si="12"/>
+        <v>30.8</v>
+      </c>
+      <c r="J161">
+        <f t="shared" si="13"/>
+        <v>30</v>
+      </c>
+      <c r="K161">
+        <f t="shared" si="14"/>
+        <v>43.1</v>
+      </c>
+    </row>
+    <row r="162" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A162">
         <v>793.18700003623962</v>
       </c>
@@ -9395,8 +12570,20 @@
       <c r="G162">
         <v>0</v>
       </c>
-    </row>
-    <row r="163" spans="1:7">
+      <c r="I162">
+        <f t="shared" si="12"/>
+        <v>30.8</v>
+      </c>
+      <c r="J162">
+        <f t="shared" si="13"/>
+        <v>30</v>
+      </c>
+      <c r="K162">
+        <f t="shared" si="14"/>
+        <v>32.4</v>
+      </c>
+    </row>
+    <row r="163" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A163">
         <v>798.24200010299683</v>
       </c>
@@ -9418,8 +12605,20 @@
       <c r="G163">
         <v>0</v>
       </c>
-    </row>
-    <row r="164" spans="1:7">
+      <c r="I163">
+        <f t="shared" si="12"/>
+        <v>30</v>
+      </c>
+      <c r="J163">
+        <f t="shared" si="13"/>
+        <v>30</v>
+      </c>
+      <c r="K163">
+        <f t="shared" si="14"/>
+        <v>34.6</v>
+      </c>
+    </row>
+    <row r="164" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A164">
         <v>803.20300006866455</v>
       </c>
@@ -9441,8 +12640,20 @@
       <c r="G164">
         <v>0</v>
       </c>
-    </row>
-    <row r="165" spans="1:7">
+      <c r="I164">
+        <f t="shared" ref="I164:I195" si="15">B180/10</f>
+        <v>29.3</v>
+      </c>
+      <c r="J164">
+        <f t="shared" ref="J164:J195" si="16">D180/10</f>
+        <v>30</v>
+      </c>
+      <c r="K164">
+        <f t="shared" ref="K164:K195" si="17">E180/10</f>
+        <v>44.6</v>
+      </c>
+    </row>
+    <row r="165" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A165">
         <v>808.2260000705719</v>
       </c>
@@ -9464,8 +12675,20 @@
       <c r="G165">
         <v>0</v>
       </c>
-    </row>
-    <row r="166" spans="1:7">
+      <c r="I165">
+        <f t="shared" si="15"/>
+        <v>30.1</v>
+      </c>
+      <c r="J165">
+        <f t="shared" si="16"/>
+        <v>30</v>
+      </c>
+      <c r="K165">
+        <f t="shared" si="17"/>
+        <v>49.8</v>
+      </c>
+    </row>
+    <row r="166" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A166">
         <v>813.26500010490417</v>
       </c>
@@ -9487,8 +12710,20 @@
       <c r="G166">
         <v>0</v>
       </c>
-    </row>
-    <row r="167" spans="1:7">
+      <c r="I166">
+        <f t="shared" si="15"/>
+        <v>30.3</v>
+      </c>
+      <c r="J166">
+        <f t="shared" si="16"/>
+        <v>30</v>
+      </c>
+      <c r="K166">
+        <f t="shared" si="17"/>
+        <v>35.5</v>
+      </c>
+    </row>
+    <row r="167" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A167">
         <v>818.24200010299683</v>
       </c>
@@ -9510,8 +12745,20 @@
       <c r="G167">
         <v>0</v>
       </c>
-    </row>
-    <row r="168" spans="1:7">
+      <c r="I167">
+        <f t="shared" si="15"/>
+        <v>30.6</v>
+      </c>
+      <c r="J167">
+        <f t="shared" si="16"/>
+        <v>30</v>
+      </c>
+      <c r="K167">
+        <f t="shared" si="17"/>
+        <v>37.200000000000003</v>
+      </c>
+    </row>
+    <row r="168" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A168">
         <v>823.26500010490417</v>
       </c>
@@ -9533,8 +12780,20 @@
       <c r="G168">
         <v>0</v>
       </c>
-    </row>
-    <row r="169" spans="1:7">
+      <c r="I168">
+        <f t="shared" si="15"/>
+        <v>30.6</v>
+      </c>
+      <c r="J168">
+        <f t="shared" si="16"/>
+        <v>30</v>
+      </c>
+      <c r="K168">
+        <f t="shared" si="17"/>
+        <v>33.6</v>
+      </c>
+    </row>
+    <row r="169" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A169">
         <v>828.27300000190735</v>
       </c>
@@ -9556,8 +12815,20 @@
       <c r="G169">
         <v>0</v>
       </c>
-    </row>
-    <row r="170" spans="1:7">
+      <c r="I169">
+        <f t="shared" si="15"/>
+        <v>29.6</v>
+      </c>
+      <c r="J169">
+        <f t="shared" si="16"/>
+        <v>20</v>
+      </c>
+      <c r="K169">
+        <f t="shared" si="17"/>
+        <v>33.6</v>
+      </c>
+    </row>
+    <row r="170" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A170">
         <v>833.27999997138977</v>
       </c>
@@ -9579,8 +12850,20 @@
       <c r="G170">
         <v>0</v>
       </c>
-    </row>
-    <row r="171" spans="1:7">
+      <c r="I170">
+        <f t="shared" si="15"/>
+        <v>29.1</v>
+      </c>
+      <c r="J170">
+        <f t="shared" si="16"/>
+        <v>20</v>
+      </c>
+      <c r="K170">
+        <f t="shared" si="17"/>
+        <v>33.6</v>
+      </c>
+    </row>
+    <row r="171" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A171">
         <v>838.33500003814697</v>
       </c>
@@ -9602,8 +12885,20 @@
       <c r="G171">
         <v>0</v>
       </c>
-    </row>
-    <row r="172" spans="1:7">
+      <c r="I171">
+        <f t="shared" si="15"/>
+        <v>29</v>
+      </c>
+      <c r="J171">
+        <f t="shared" si="16"/>
+        <v>20</v>
+      </c>
+      <c r="K171">
+        <f t="shared" si="17"/>
+        <v>33.6</v>
+      </c>
+    </row>
+    <row r="172" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A172">
         <v>843.33000016212463</v>
       </c>
@@ -9625,8 +12920,20 @@
       <c r="G172">
         <v>0</v>
       </c>
-    </row>
-    <row r="173" spans="1:7">
+      <c r="I172">
+        <f t="shared" si="15"/>
+        <v>28.9</v>
+      </c>
+      <c r="J172">
+        <f t="shared" si="16"/>
+        <v>20</v>
+      </c>
+      <c r="K172">
+        <f t="shared" si="17"/>
+        <v>33.6</v>
+      </c>
+    </row>
+    <row r="173" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A173">
         <v>848.33899998664856</v>
       </c>
@@ -9648,8 +12955,20 @@
       <c r="G173">
         <v>0</v>
       </c>
-    </row>
-    <row r="174" spans="1:7">
+      <c r="I173">
+        <f t="shared" si="15"/>
+        <v>29</v>
+      </c>
+      <c r="J173">
+        <f t="shared" si="16"/>
+        <v>20</v>
+      </c>
+      <c r="K173">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="174" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A174">
         <v>853.34700012207031</v>
       </c>
@@ -9671,8 +12990,20 @@
       <c r="G174">
         <v>0</v>
       </c>
-    </row>
-    <row r="175" spans="1:7">
+      <c r="I174">
+        <f t="shared" si="15"/>
+        <v>26</v>
+      </c>
+      <c r="J174">
+        <f t="shared" si="16"/>
+        <v>20</v>
+      </c>
+      <c r="K174">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="175" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A175">
         <v>858.35500001907349</v>
       </c>
@@ -9694,8 +13025,20 @@
       <c r="G175">
         <v>0</v>
       </c>
-    </row>
-    <row r="176" spans="1:7">
+      <c r="I175">
+        <f t="shared" si="15"/>
+        <v>22.9</v>
+      </c>
+      <c r="J175">
+        <f t="shared" si="16"/>
+        <v>20</v>
+      </c>
+      <c r="K175">
+        <f t="shared" si="17"/>
+        <v>6.4</v>
+      </c>
+    </row>
+    <row r="176" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A176">
         <v>863.39300012588501</v>
       </c>
@@ -9717,8 +13060,20 @@
       <c r="G176">
         <v>0</v>
       </c>
-    </row>
-    <row r="177" spans="1:7">
+      <c r="I176">
+        <f t="shared" si="15"/>
+        <v>19.600000000000001</v>
+      </c>
+      <c r="J176">
+        <f t="shared" si="16"/>
+        <v>20</v>
+      </c>
+      <c r="K176">
+        <f t="shared" si="17"/>
+        <v>22.3</v>
+      </c>
+    </row>
+    <row r="177" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A177">
         <v>868.37000012397766</v>
       </c>
@@ -9740,8 +13095,20 @@
       <c r="G177">
         <v>0</v>
       </c>
-    </row>
-    <row r="178" spans="1:7">
+      <c r="I177">
+        <f t="shared" si="15"/>
+        <v>17.8</v>
+      </c>
+      <c r="J177">
+        <f t="shared" si="16"/>
+        <v>20</v>
+      </c>
+      <c r="K177">
+        <f t="shared" si="17"/>
+        <v>45.9</v>
+      </c>
+    </row>
+    <row r="178" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A178">
         <v>873.39300012588501</v>
       </c>
@@ -9763,8 +13130,20 @@
       <c r="G178">
         <v>0</v>
       </c>
-    </row>
-    <row r="179" spans="1:7">
+      <c r="I178">
+        <f t="shared" si="15"/>
+        <v>17.5</v>
+      </c>
+      <c r="J178">
+        <f t="shared" si="16"/>
+        <v>20</v>
+      </c>
+      <c r="K178">
+        <f t="shared" si="17"/>
+        <v>52.6</v>
+      </c>
+    </row>
+    <row r="179" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A179">
         <v>878.40300011634827</v>
       </c>
@@ -9786,8 +13165,20 @@
       <c r="G179">
         <v>0</v>
       </c>
-    </row>
-    <row r="180" spans="1:7">
+      <c r="I179">
+        <f t="shared" si="15"/>
+        <v>17.7</v>
+      </c>
+      <c r="J179">
+        <f t="shared" si="16"/>
+        <v>20</v>
+      </c>
+      <c r="K179">
+        <f t="shared" si="17"/>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="180" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A180">
         <v>883.41000008583069</v>
       </c>
@@ -9809,8 +13200,20 @@
       <c r="G180">
         <v>0</v>
       </c>
-    </row>
-    <row r="181" spans="1:7">
+      <c r="I180">
+        <f t="shared" si="15"/>
+        <v>19.3</v>
+      </c>
+      <c r="J180">
+        <f t="shared" si="16"/>
+        <v>20</v>
+      </c>
+      <c r="K180">
+        <f t="shared" si="17"/>
+        <v>49.6</v>
+      </c>
+    </row>
+    <row r="181" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A181">
         <v>888.46500015258789</v>
       </c>
@@ -9832,8 +13235,20 @@
       <c r="G181">
         <v>0</v>
       </c>
-    </row>
-    <row r="182" spans="1:7">
+      <c r="I181">
+        <f t="shared" si="15"/>
+        <v>19.8</v>
+      </c>
+      <c r="J181">
+        <f t="shared" si="16"/>
+        <v>20</v>
+      </c>
+      <c r="K181">
+        <f t="shared" si="17"/>
+        <v>32</v>
+      </c>
+    </row>
+    <row r="182" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A182">
         <v>893.42499995231628</v>
       </c>
@@ -9855,8 +13270,20 @@
       <c r="G182">
         <v>0</v>
       </c>
-    </row>
-    <row r="183" spans="1:7">
+      <c r="I182">
+        <f t="shared" si="15"/>
+        <v>18.600000000000001</v>
+      </c>
+      <c r="J182">
+        <f t="shared" si="16"/>
+        <v>20</v>
+      </c>
+      <c r="K182">
+        <f t="shared" si="17"/>
+        <v>35.6</v>
+      </c>
+    </row>
+    <row r="183" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A183">
         <v>898.44900012016296</v>
       </c>
@@ -9878,8 +13305,20 @@
       <c r="G183">
         <v>0</v>
       </c>
-    </row>
-    <row r="184" spans="1:7">
+      <c r="I183">
+        <f t="shared" si="15"/>
+        <v>19.899999999999999</v>
+      </c>
+      <c r="J183">
+        <f t="shared" si="16"/>
+        <v>20</v>
+      </c>
+      <c r="K183">
+        <f t="shared" si="17"/>
+        <v>56</v>
+      </c>
+    </row>
+    <row r="184" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A184">
         <v>903.58100008964539</v>
       </c>
@@ -9901,8 +13340,20 @@
       <c r="G184">
         <v>0</v>
       </c>
-    </row>
-    <row r="185" spans="1:7">
+      <c r="I184">
+        <f t="shared" si="15"/>
+        <v>19</v>
+      </c>
+      <c r="J184">
+        <f t="shared" si="16"/>
+        <v>20</v>
+      </c>
+      <c r="K184">
+        <f t="shared" si="17"/>
+        <v>32.799999999999997</v>
+      </c>
+    </row>
+    <row r="185" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A185">
         <v>908.45000004768372</v>
       </c>
@@ -9924,8 +13375,20 @@
       <c r="G185">
         <v>0</v>
       </c>
-    </row>
-    <row r="186" spans="1:7">
+      <c r="I185">
+        <f t="shared" si="15"/>
+        <v>20</v>
+      </c>
+      <c r="J185">
+        <f t="shared" si="16"/>
+        <v>20</v>
+      </c>
+      <c r="K185">
+        <f t="shared" si="17"/>
+        <v>53.5</v>
+      </c>
+    </row>
+    <row r="186" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A186">
         <v>913.47399997711182</v>
       </c>
@@ -9947,8 +13410,20 @@
       <c r="G186">
         <v>0</v>
       </c>
-    </row>
-    <row r="187" spans="1:7">
+      <c r="I186">
+        <f t="shared" si="15"/>
+        <v>19</v>
+      </c>
+      <c r="J186">
+        <f t="shared" si="16"/>
+        <v>20</v>
+      </c>
+      <c r="K186">
+        <f t="shared" si="17"/>
+        <v>35.6</v>
+      </c>
+    </row>
+    <row r="187" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A187">
         <v>918.46600008010864</v>
       </c>
@@ -9970,8 +13445,20 @@
       <c r="G187">
         <v>0</v>
       </c>
-    </row>
-    <row r="188" spans="1:7">
+      <c r="I187">
+        <f t="shared" si="15"/>
+        <v>19.2</v>
+      </c>
+      <c r="J187">
+        <f t="shared" si="16"/>
+        <v>20</v>
+      </c>
+      <c r="K187">
+        <f t="shared" si="17"/>
+        <v>55.8</v>
+      </c>
+    </row>
+    <row r="188" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A188">
         <v>923.48900008201599</v>
       </c>
@@ -9993,8 +13480,20 @@
       <c r="G188">
         <v>0</v>
       </c>
-    </row>
-    <row r="189" spans="1:7">
+      <c r="I188">
+        <f t="shared" si="15"/>
+        <v>20.100000000000001</v>
+      </c>
+      <c r="J188">
+        <f t="shared" si="16"/>
+        <v>20</v>
+      </c>
+      <c r="K188">
+        <f t="shared" si="17"/>
+        <v>48.7</v>
+      </c>
+    </row>
+    <row r="189" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A189">
         <v>928.51200008392334</v>
       </c>
@@ -10016,8 +13515,20 @@
       <c r="G189">
         <v>0</v>
       </c>
-    </row>
-    <row r="190" spans="1:7">
+      <c r="I189">
+        <f t="shared" si="15"/>
+        <v>20.8</v>
+      </c>
+      <c r="J189">
+        <f t="shared" si="16"/>
+        <v>20</v>
+      </c>
+      <c r="K189">
+        <f t="shared" si="17"/>
+        <v>38.5</v>
+      </c>
+    </row>
+    <row r="190" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A190">
         <v>933.50399994850159</v>
       </c>
@@ -10039,8 +13550,20 @@
       <c r="G190">
         <v>0</v>
       </c>
-    </row>
-    <row r="191" spans="1:7">
+      <c r="I190">
+        <f t="shared" si="15"/>
+        <v>20.100000000000001</v>
+      </c>
+      <c r="J190">
+        <f t="shared" si="16"/>
+        <v>20</v>
+      </c>
+      <c r="K190">
+        <f t="shared" si="17"/>
+        <v>33.700000000000003</v>
+      </c>
+    </row>
+    <row r="191" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A191">
         <v>938.51399993896484</v>
       </c>
@@ -10062,8 +13585,20 @@
       <c r="G191">
         <v>0</v>
       </c>
-    </row>
-    <row r="192" spans="1:7">
+      <c r="I191">
+        <f t="shared" si="15"/>
+        <v>20.9</v>
+      </c>
+      <c r="J191">
+        <f t="shared" si="16"/>
+        <v>20</v>
+      </c>
+      <c r="K191">
+        <f t="shared" si="17"/>
+        <v>46.4</v>
+      </c>
+    </row>
+    <row r="192" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A192">
         <v>943.53699994087219</v>
       </c>
@@ -10085,8 +13620,20 @@
       <c r="G192">
         <v>0</v>
       </c>
-    </row>
-    <row r="193" spans="1:7">
+      <c r="I192">
+        <f t="shared" si="15"/>
+        <v>20.6</v>
+      </c>
+      <c r="J192">
+        <f t="shared" si="16"/>
+        <v>20</v>
+      </c>
+      <c r="K192">
+        <f t="shared" si="17"/>
+        <v>30.7</v>
+      </c>
+    </row>
+    <row r="193" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A193">
         <v>948.54400014877319</v>
       </c>
@@ -10108,8 +13655,20 @@
       <c r="G193">
         <v>0</v>
       </c>
-    </row>
-    <row r="194" spans="1:7">
+      <c r="I193">
+        <f t="shared" si="15"/>
+        <v>21.1</v>
+      </c>
+      <c r="J193">
+        <f t="shared" si="16"/>
+        <v>20</v>
+      </c>
+      <c r="K193">
+        <f t="shared" si="17"/>
+        <v>38.200000000000003</v>
+      </c>
+    </row>
+    <row r="194" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A194">
         <v>953.58299994468689</v>
       </c>
@@ -10131,8 +13690,20 @@
       <c r="G194">
         <v>0</v>
       </c>
-    </row>
-    <row r="195" spans="1:7">
+      <c r="I194">
+        <f t="shared" si="15"/>
+        <v>21</v>
+      </c>
+      <c r="J194">
+        <f t="shared" si="16"/>
+        <v>20</v>
+      </c>
+      <c r="K194">
+        <f t="shared" si="17"/>
+        <v>28.3</v>
+      </c>
+    </row>
+    <row r="195" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A195">
         <v>958.59100008010864</v>
       </c>
@@ -10154,8 +13725,20 @@
       <c r="G195">
         <v>0</v>
       </c>
-    </row>
-    <row r="196" spans="1:7">
+      <c r="I195">
+        <f t="shared" si="15"/>
+        <v>19.8</v>
+      </c>
+      <c r="J195">
+        <f t="shared" si="16"/>
+        <v>20</v>
+      </c>
+      <c r="K195">
+        <f t="shared" si="17"/>
+        <v>30.8</v>
+      </c>
+    </row>
+    <row r="196" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A196">
         <v>963.58299994468689</v>
       </c>
@@ -10177,8 +13760,20 @@
       <c r="G196">
         <v>0</v>
       </c>
-    </row>
-    <row r="197" spans="1:7">
+      <c r="I196">
+        <f t="shared" ref="I196:I203" si="18">B212/10</f>
+        <v>18.399999999999999</v>
+      </c>
+      <c r="J196">
+        <f t="shared" ref="J196:J203" si="19">D212/10</f>
+        <v>20</v>
+      </c>
+      <c r="K196">
+        <f t="shared" ref="K196:K203" si="20">E212/10</f>
+        <v>45.5</v>
+      </c>
+    </row>
+    <row r="197" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A197">
         <v>968.6100001335144</v>
       </c>
@@ -10200,8 +13795,20 @@
       <c r="G197">
         <v>0</v>
       </c>
-    </row>
-    <row r="198" spans="1:7">
+      <c r="I197">
+        <f t="shared" si="18"/>
+        <v>18.8</v>
+      </c>
+      <c r="J197">
+        <f t="shared" si="19"/>
+        <v>20</v>
+      </c>
+      <c r="K197">
+        <f t="shared" si="20"/>
+        <v>58.7</v>
+      </c>
+    </row>
+    <row r="198" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A198">
         <v>973.60199999809265</v>
       </c>
@@ -10223,8 +13830,20 @@
       <c r="G198">
         <v>0</v>
       </c>
-    </row>
-    <row r="199" spans="1:7">
+      <c r="I198">
+        <f t="shared" si="18"/>
+        <v>19.100000000000001</v>
+      </c>
+      <c r="J198">
+        <f t="shared" si="19"/>
+        <v>20</v>
+      </c>
+      <c r="K198">
+        <f t="shared" si="20"/>
+        <v>47.4</v>
+      </c>
+    </row>
+    <row r="199" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A199">
         <v>978.6560001373291</v>
       </c>
@@ -10246,8 +13865,20 @@
       <c r="G199">
         <v>0</v>
       </c>
-    </row>
-    <row r="200" spans="1:7">
+      <c r="I199">
+        <f t="shared" si="18"/>
+        <v>20.399999999999999</v>
+      </c>
+      <c r="J199">
+        <f t="shared" si="19"/>
+        <v>20</v>
+      </c>
+      <c r="K199">
+        <f t="shared" si="20"/>
+        <v>47.6</v>
+      </c>
+    </row>
+    <row r="200" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A200">
         <v>983.6340000629425</v>
       </c>
@@ -10269,8 +13900,20 @@
       <c r="G200">
         <v>0</v>
       </c>
-    </row>
-    <row r="201" spans="1:7">
+      <c r="I200">
+        <f t="shared" si="18"/>
+        <v>20.6</v>
+      </c>
+      <c r="J200">
+        <f t="shared" si="19"/>
+        <v>20</v>
+      </c>
+      <c r="K200">
+        <f t="shared" si="20"/>
+        <v>32.4</v>
+      </c>
+    </row>
+    <row r="201" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A201">
         <v>988.64100003242493</v>
       </c>
@@ -10292,8 +13935,20 @@
       <c r="G201">
         <v>0</v>
       </c>
-    </row>
-    <row r="202" spans="1:7">
+      <c r="I201">
+        <f t="shared" si="18"/>
+        <v>20.100000000000001</v>
+      </c>
+      <c r="J201">
+        <f t="shared" si="19"/>
+        <v>20</v>
+      </c>
+      <c r="K201">
+        <f t="shared" si="20"/>
+        <v>36.6</v>
+      </c>
+    </row>
+    <row r="202" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A202">
         <v>993.69600009918213</v>
       </c>
@@ -10315,8 +13970,20 @@
       <c r="G202">
         <v>0</v>
       </c>
-    </row>
-    <row r="203" spans="1:7">
+      <c r="I202">
+        <f t="shared" si="18"/>
+        <v>20.100000000000001</v>
+      </c>
+      <c r="J202">
+        <f t="shared" si="19"/>
+        <v>20</v>
+      </c>
+      <c r="K202">
+        <f t="shared" si="20"/>
+        <v>43.9</v>
+      </c>
+    </row>
+    <row r="203" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A203">
         <v>998.67199993133545</v>
       </c>
@@ -10338,8 +14005,20 @@
       <c r="G203">
         <v>0</v>
       </c>
-    </row>
-    <row r="204" spans="1:7">
+      <c r="I203">
+        <f t="shared" si="18"/>
+        <v>21.1</v>
+      </c>
+      <c r="J203">
+        <f t="shared" si="19"/>
+        <v>20</v>
+      </c>
+      <c r="K203">
+        <f t="shared" si="20"/>
+        <v>40.700000000000003</v>
+      </c>
+    </row>
+    <row r="204" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A204">
         <v>1003.683000087738</v>
       </c>
@@ -10362,7 +14041,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="205" spans="1:7">
+    <row r="205" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A205">
         <v>1008.7220001220703</v>
       </c>
@@ -10385,7 +14064,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="206" spans="1:7">
+    <row r="206" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A206">
         <v>1013.7139999866486</v>
       </c>
@@ -10408,7 +14087,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="207" spans="1:7">
+    <row r="207" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A207">
         <v>1018.7369999885559</v>
       </c>
@@ -10431,7 +14110,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="208" spans="1:7">
+    <row r="208" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A208">
         <v>1023.7290000915527</v>
       </c>
@@ -10454,7 +14133,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="209" spans="1:7">
+    <row r="209" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A209">
         <v>1028.768000125885</v>
       </c>
@@ -10477,7 +14156,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="210" spans="1:7">
+    <row r="210" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A210">
         <v>1033.7929999828339</v>
       </c>
@@ -10500,7 +14179,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="211" spans="1:7">
+    <row r="211" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A211">
         <v>1038.7539999485016</v>
       </c>
@@ -10523,7 +14202,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="212" spans="1:7">
+    <row r="212" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A212">
         <v>1043.7769999504089</v>
       </c>
@@ -10546,7 +14225,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="213" spans="1:7">
+    <row r="213" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A213">
         <v>1048.7850000858307</v>
       </c>
@@ -10569,7 +14248,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="214" spans="1:7">
+    <row r="214" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A214">
         <v>1053.7920000553131</v>
       </c>
@@ -10592,7 +14271,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="215" spans="1:7">
+    <row r="215" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A215">
         <v>1058.8619999885559</v>
       </c>
@@ -10615,7 +14294,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="216" spans="1:7">
+    <row r="216" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A216">
         <v>1063.8250000476837</v>
       </c>
@@ -10638,7 +14317,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="217" spans="1:7">
+    <row r="217" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A217">
         <v>1068.8329999446869</v>
       </c>
@@ -10661,7 +14340,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="218" spans="1:7">
+    <row r="218" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A218">
         <v>1073.8559999465942</v>
       </c>
@@ -10684,7 +14363,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="219" spans="1:7">
+    <row r="219" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A219">
         <v>1078.8630001544952</v>
       </c>
@@ -10707,7 +14386,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="220" spans="1:7">
+    <row r="220" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A220">
         <v>1083.9179999828339</v>
       </c>
@@ -10730,7 +14409,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="221" spans="1:7">
+    <row r="221" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A221">
         <v>1088.8940000534058</v>
       </c>
@@ -10753,7 +14432,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="222" spans="1:7">
+    <row r="222" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A222">
         <v>1093.904000043869</v>
       </c>
@@ -10776,7 +14455,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="223" spans="1:7">
+    <row r="223" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A223">
         <v>1098.9579999446869</v>
       </c>
@@ -10799,7 +14478,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="224" spans="1:7">
+    <row r="224" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A224">
         <v>1103.9349999427795</v>
       </c>
@@ -10822,7 +14501,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="225" spans="1:7">
+    <row r="225" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A225">
         <v>1108.9579999446869</v>
       </c>
@@ -10845,7 +14524,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="226" spans="1:7">
+    <row r="226" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A226">
         <v>1113.9390001296997</v>
       </c>
@@ -10868,7 +14547,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="227" spans="1:7">
+    <row r="227" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A227">
         <v>1118.9620001316071</v>
       </c>
@@ -10891,7 +14570,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="228" spans="1:7">
+    <row r="228" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A228">
         <v>1123.9869999885559</v>
       </c>
@@ -10914,7 +14593,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="229" spans="1:7">
+    <row r="229" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A229">
         <v>1128.9790000915527</v>
       </c>
@@ -10937,7 +14616,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="230" spans="1:7">
+    <row r="230" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A230">
         <v>1134.0030000209808</v>
       </c>
@@ -10960,7 +14639,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="231" spans="1:7">
+    <row r="231" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A231">
         <v>1139.0099999904633</v>
       </c>
@@ -10983,7 +14662,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="232" spans="1:7">
+    <row r="232" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A232">
         <v>1144.018000125885</v>
       </c>
@@ -11006,7 +14685,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="233" spans="1:7">
+    <row r="233" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A233">
         <v>1149.0720000267029</v>
       </c>
@@ -11029,7 +14708,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="234" spans="1:7">
+    <row r="234" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A234">
         <v>1154.0329999923706</v>
       </c>
@@ -11052,7 +14731,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="235" spans="1:7">
+    <row r="235" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A235">
         <v>1159.0880000591278</v>
       </c>
@@ -11075,7 +14754,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="236" spans="1:7">
+    <row r="236" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A236">
         <v>1164.0800001621246</v>
       </c>
@@ -11098,7 +14777,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="237" spans="1:7">
+    <row r="237" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A237">
         <v>1169.103000164032</v>
       </c>
@@ -11121,7 +14800,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="238" spans="1:7">
+    <row r="238" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A238">
         <v>1174.1419999599457</v>
       </c>
@@ -11144,7 +14823,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="239" spans="1:7">
+    <row r="239" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A239">
         <v>1179.1019999980927</v>
       </c>
@@ -11167,7 +14846,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="240" spans="1:7">
+    <row r="240" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A240">
         <v>1184.0940001010895</v>
       </c>
@@ -11190,7 +14869,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="241" spans="1:7">
+    <row r="241" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A241">
         <v>1189.1500000953674</v>
       </c>
@@ -11213,7 +14892,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="242" spans="1:7">
+    <row r="242" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A242">
         <v>1194.1570000648499</v>
       </c>
@@ -11236,7 +14915,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="243" spans="1:7">
+    <row r="243" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A243">
         <v>1199.1960000991821</v>
       </c>
@@ -11256,29 +14935,6 @@
         <v>311</v>
       </c>
       <c r="G243">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="244" spans="1:7">
-      <c r="A244">
-        <v>1204.9060001373291</v>
-      </c>
-      <c r="B244">
-        <v>293</v>
-      </c>
-      <c r="C244">
-        <v>0</v>
-      </c>
-      <c r="D244">
-        <v>400</v>
-      </c>
-      <c r="E244">
-        <v>1000</v>
-      </c>
-      <c r="F244">
-        <v>311</v>
-      </c>
-      <c r="G244">
         <v>0</v>
       </c>
     </row>
